--- a/Data/MetadataDictionary_v1.xlsx
+++ b/Data/MetadataDictionary_v1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25017"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp.sharepoint.com/sites/PNAMPTeam/Shared Documents/General/Projects/Habitat Data Sharing/Habitat Metrics Integration_INTERNAL/Data Release Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2606769-7CCA-4097-A839-B8A0648C75D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AB53408-878C-4E28-8334-C75578AFC08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="15576" windowHeight="11904" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="15576" windowHeight="11904" activeTab="2" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="MetadataDict" sheetId="2" r:id="rId1"/>
     <sheet name="EnumDict" sheetId="3" r:id="rId2"/>
     <sheet name="notes_versions" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EnumDict!$A$1:$G$221</definedName>
@@ -324,7 +323,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="362">
   <si>
     <t>tblname</t>
   </si>
@@ -404,7 +403,7 @@
     <t xml:space="preserve">measurementID </t>
   </si>
   <si>
-    <t>Global unique identifier assigned to the variable/measurementType.</t>
+    <t>Global unique identifier assigned to the variable or measurementType.</t>
   </si>
   <si>
     <t>y</t>
@@ -581,7 +580,7 @@
     <t>latitude</t>
   </si>
   <si>
-    <t>The geographic latitude (ed: insert spatial reference system when known) of the geographic center of a location.</t>
+    <t>The geographic latitude (WGS84) of the geographic center of a location.</t>
   </si>
   <si>
     <t>decimal degrees</t>
@@ -599,7 +598,7 @@
     <t>longitude</t>
   </si>
   <si>
-    <t>The geographic longitude (ed: insert spatial reference system when known) of the geographic center of a location.</t>
+    <t>The geographic longitude (WGS84) of the geographic center of a location.</t>
   </si>
   <si>
     <t>verbatimLocationID</t>
@@ -857,7 +856,7 @@
     <t>The term is not present in the Monitoring Program's originating source data and/or the term was not included in the Integrated Dataset due to a lack of compatibility across programs so the AnalysisMethod is not included here. Refer to Completeness in the metadata record for additional information on what terms were and were not included in the integrated dataset.</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                            </t>
+    <t>table</t>
   </si>
   <si>
     <t>attrlabl</t>
@@ -1847,9 +1846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E6029B-A891-4391-9A91-8B6BC1C75C07}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2367,7 +2366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="45">
+    <row r="20" spans="1:15" ht="30">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -2435,6 +2434,9 @@
       <c r="G22" t="s">
         <v>19</v>
       </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
       <c r="J22" s="1" t="s">
         <v>27</v>
       </c>
@@ -2448,7 +2450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="45">
+    <row r="23" spans="1:15" ht="30">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -3282,8 +3284,8 @@
   <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D56:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -7802,7 +7804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D9F55F-645B-438B-85F4-A8E490BE8B65}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -7852,19 +7854,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B96048A-771A-44C6-A6DA-2D2FE762A49B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Number xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
+    <DateandTime xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006688A6CBE26CBF41BFE362BEC34502BA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="916ec95d980b70225c2beeb175eb34ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xmlns:ns3="3618cbaa-901d-4c6b-9f1a-f53e3aa15701" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1086361ad164fb1fc8fad31a5b69396c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8102,34 +8112,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Number xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
-    <DateandTime xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783B9ED7-A86D-4C20-8581-4B66EC9EBDC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B41B24-566D-47DB-B2A1-8A240BF055D5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B41B24-566D-47DB-B2A1-8A240BF055D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783B9ED7-A86D-4C20-8581-4B66EC9EBDC7}"/>
 </file>
--- a/Data/MetadataDictionary_v1.xlsx
+++ b/Data/MetadataDictionary_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25017"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp.sharepoint.com/sites/PNAMPTeam/Shared Documents/General/Projects/Habitat Data Sharing/Habitat Metrics Integration_INTERNAL/Data Release Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AB53408-878C-4E28-8334-C75578AFC08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37C9C6B5-9E04-47BE-8234-FC2093D10228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="15576" windowHeight="11904" activeTab="2" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="MetadataDict" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="notes_versions" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EnumDict!$A$1:$G$221</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetadataDict!$A$1:$O$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EnumDict!$A$1:$G$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetadataDict!$A$1:$O$58</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -323,7 +323,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="382">
   <si>
     <t>tblname</t>
   </si>
@@ -610,6 +610,15 @@
     <t>5483, 88693. WtR563</t>
   </si>
   <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>Specifies whether the site was a part of a probabilistic random design (Random) or whether it was selected as a targeted site to address a specific management concern (Targeted)</t>
+  </si>
+  <si>
+    <t>added by becca 02/23/2022</t>
+  </si>
+  <si>
     <t>waterBody</t>
   </si>
   <si>
@@ -1276,6 +1285,21 @@
     <t>The dataset ID assigned to PIBO-sourced data.</t>
   </si>
   <si>
+    <t xml:space="preserve">Random </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample location was selected as part of a the program's probabilistic random design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producer Defined </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Targeted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample location was selected as a targed site to address a specific managment concern or question, not part of the random design. </t>
+  </si>
+  <si>
     <t xml:space="preserve">EPA </t>
   </si>
   <si>
@@ -1409,13 +1433,49 @@
   </si>
   <si>
     <t>https://github.com/rascully/Stream-Monitoring-Data-Exchange-Specifications/commit/44fa159b49ed61839f500e757209c7652f3cad0e</t>
+  </si>
+  <si>
+    <t>siteSelectionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randome </t>
+  </si>
+  <si>
+    <t>beaverImpact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producer defined </t>
+  </si>
+  <si>
+    <t>added ras 02/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beaver impact the flow of the reach. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">beaverImpact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver have changed the flow in the reach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver did not change the flow of the reach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">added by ras 02/23/2022 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1844,26 +1904,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E6029B-A891-4391-9A91-8B6BC1C75C07}">
-  <dimension ref="A1:Q59"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="3" customWidth="1"/>
-    <col min="4" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="12" width="10.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" style="3" customWidth="1"/>
+    <col min="4" max="8" width="10.1796875" customWidth="1"/>
+    <col min="9" max="12" width="10.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30">
+    <row r="1" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="75">
+    <row r="2" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1927,7 +1988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="45">
+    <row r="3" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1950,7 +2011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="30">
+    <row r="4" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1976,7 +2037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="255">
+    <row r="5" spans="1:17" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2008,7 +2069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="60">
+    <row r="6" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2040,7 +2101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="90">
+    <row r="7" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2069,7 +2130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="105">
+    <row r="8" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2107,7 +2168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="120">
+    <row r="9" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -2121,7 +2182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2156,7 +2217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="210">
+    <row r="11" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2182,7 +2243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="45">
+    <row r="12" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -2202,7 +2263,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30">
+    <row r="13" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -2225,7 +2286,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30">
+    <row r="14" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2245,7 +2306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="36" customHeight="1">
+    <row r="15" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -2277,7 +2338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="210">
+    <row r="16" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2303,229 +2364,220 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>50</v>
       </c>
       <c r="B17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G17" t="s">
+        <v>373</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>2000</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>2020</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>79</v>
       </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="1" t="s">
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M18" s="10">
         <v>2008</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="60">
-      <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="30">
+    <row r="19" spans="1:15" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>80</v>
       </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="30">
+    </row>
+    <row r="20" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20">
-        <v>25.848932980000001</v>
-      </c>
-      <c r="E20">
-        <v>71.268600000000006</v>
-      </c>
-      <c r="F20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
       </c>
+      <c r="I20" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="L20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="105">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <v>25.848932980000001</v>
+      </c>
+      <c r="E21">
+        <v>71.268600000000006</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
       </c>
       <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="H21" t="s">
-        <v>22</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15">
+    <row r="22" spans="1:15" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>89</v>
+        <v>68</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23">
-        <v>-163.74230800000001</v>
-      </c>
-      <c r="E23">
-        <v>-67.498393539999995</v>
-      </c>
-      <c r="F23" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="G23" t="s">
         <v>19</v>
       </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L23" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="60">
+    <row r="24" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="D24">
+        <v>-163.74230800000001</v>
+      </c>
+      <c r="E24">
+        <v>-67.498393539999995</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
       </c>
       <c r="G24" t="s">
         <v>19</v>
       </c>
-      <c r="H24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="L24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>27</v>
@@ -2536,259 +2588,257 @@
       <c r="L25" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="M25" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="N25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="43.5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
         <v>98</v>
       </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="O26"/>
-    </row>
-    <row r="27" spans="1:15" ht="29.1">
-      <c r="A27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="G27" t="s">
         <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="3"/>
       <c r="N27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O27" t="s">
+    </row>
+    <row r="28" spans="1:15" ht="87" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="C30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28"/>
-    </row>
-    <row r="29" spans="1:15" ht="29.1">
-      <c r="A29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="1" t="s">
+      <c r="L30" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O29"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:15" ht="174" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="1:15" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="43.5">
-      <c r="A31" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C32" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31"/>
-    </row>
-    <row r="32" spans="1:15" ht="29.1">
-      <c r="A32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>24</v>
       </c>
       <c r="O32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O33"/>
-    </row>
-    <row r="34" spans="1:15" ht="29.1">
-      <c r="A34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" t="s">
-        <v>125</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O34"/>
-    </row>
-    <row r="35" spans="1:15" ht="29.1">
+      <c r="O34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
@@ -2800,131 +2850,149 @@
         <v>27</v>
       </c>
       <c r="K35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" t="s">
         <v>128</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N35" t="s">
-        <v>76</v>
-      </c>
-      <c r="O35"/>
-    </row>
-    <row r="36" spans="1:15" ht="29.1">
-      <c r="A36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="1:15" ht="58" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="1" t="s">
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M36" s="10" t="s">
+      <c r="K37" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="N36" t="s">
-        <v>76</v>
-      </c>
-      <c r="O36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="29.1">
-      <c r="A37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="N37" t="s">
+        <v>76</v>
+      </c>
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="1:15" ht="58" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N38" t="s">
+        <v>76</v>
+      </c>
+      <c r="O38" t="s">
         <v>135</v>
       </c>
-      <c r="N37" t="s">
+    </row>
+    <row r="39" spans="1:15" ht="174" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
         <v>136</v>
       </c>
-      <c r="O37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="43.5">
-      <c r="A38" t="s">
+      <c r="C39" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O38"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O39"/>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="M39" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="N39" t="s">
+        <v>139</v>
+      </c>
+      <c r="O39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>137</v>
-      </c>
-      <c r="B40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>141</v>
       </c>
       <c r="G40" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="O40"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
         <v>142</v>
-      </c>
-      <c r="C41" t="s">
-        <v>143</v>
       </c>
       <c r="G41" t="s">
         <v>19</v>
@@ -2937,54 +3005,54 @@
       </c>
       <c r="O41"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" t="s">
         <v>144</v>
       </c>
-      <c r="C42" t="s">
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42"/>
+    </row>
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" t="s">
         <v>145</v>
       </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" t="s">
-        <v>37</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O42"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>146</v>
       </c>
-      <c r="C43" t="s">
-        <v>147</v>
-      </c>
       <c r="G43" t="s">
         <v>19</v>
       </c>
-      <c r="H43" t="s">
-        <v>37</v>
+      <c r="I43" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O43"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
         <v>148</v>
@@ -2993,25 +3061,19 @@
         <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O44"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
         <v>150</v>
@@ -3019,143 +3081,155 @@
       <c r="G45" t="s">
         <v>19</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>27</v>
+      <c r="H45" t="s">
+        <v>37</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O45"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
         <v>151</v>
       </c>
-      <c r="C46" t="s">
-        <v>152</v>
-      </c>
       <c r="G46" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>27</v>
+      <c r="H46" t="s">
+        <v>31</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O46"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O47"/>
+    </row>
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
         <v>154</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>155</v>
       </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" t="s">
-        <v>46</v>
-      </c>
-      <c r="J47" s="1" t="s">
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O47"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" t="s">
-        <v>158</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" t="s">
-        <v>46</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O48"/>
+    </row>
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O48"/>
-    </row>
-    <row r="49" spans="1:15" ht="72.599999999999994">
-      <c r="A49" t="s">
+      <c r="O49"/>
+    </row>
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C50" t="s">
         <v>161</v>
       </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
-      <c r="O49"/>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" t="s">
-        <v>160</v>
-      </c>
-      <c r="B50" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="O50"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" t="s">
         <v>163</v>
       </c>
+      <c r="C51" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="G51" t="s">
         <v>19</v>
       </c>
-      <c r="H51" t="s">
-        <v>37</v>
-      </c>
       <c r="O51"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
         <v>165</v>
@@ -3168,87 +3242,75 @@
       </c>
       <c r="O52"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" t="s">
         <v>166</v>
       </c>
-      <c r="C53" t="s">
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s">
+        <v>37</v>
+      </c>
+      <c r="O53"/>
+    </row>
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" t="s">
         <v>167</v>
       </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="C54" t="s">
         <v>168</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O53"/>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" t="s">
-        <v>160</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="O54"/>
+    </row>
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" t="s">
         <v>169</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>170</v>
       </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" t="s">
-        <v>31</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O54"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" t="s">
         <v>171</v>
-      </c>
-      <c r="C55" t="s">
-        <v>172</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" t="s">
-        <v>31</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O55"/>
+    </row>
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" t="s">
         <v>173</v>
-      </c>
-      <c r="O55"/>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" t="s">
-        <v>175</v>
       </c>
       <c r="G56" t="s">
         <v>19</v>
@@ -3260,17 +3322,67 @@
         <v>27</v>
       </c>
       <c r="K56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O56"/>
+    </row>
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" t="s">
+        <v>175</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="O56"/>
-    </row>
-    <row r="57" spans="1:15" ht="15"/>
-    <row r="58" spans="1:15" ht="15"/>
-    <row r="59" spans="1:15" ht="15"/>
+      <c r="O57"/>
+    </row>
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" t="s">
+        <v>178</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O58"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O56" xr:uid="{41E6029B-A891-4391-9A91-8B6BC1C75C07}">
+  <autoFilter ref="A1:O58" xr:uid="{41E6029B-A891-4391-9A91-8B6BC1C75C07}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Event"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O8">
-      <sortCondition ref="B1:B56"/>
+      <sortCondition ref="B1:B58"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3281,47 +3393,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063D4566-F61A-451E-B178-010037E4B35B}">
-  <dimension ref="A1:G221"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D56:D57"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1048477" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1048526" sqref="A1048526"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="66.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3330,16 +3443,16 @@
         <v>#REF!</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3348,16 +3461,16 @@
         <v>#REF!</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3366,16 +3479,16 @@
         <v>#REF!</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3384,16 +3497,16 @@
         <v>#REF!</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3402,16 +3515,16 @@
         <v>#REF!</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3420,16 +3533,16 @@
         <v>#REF!</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3441,16 +3554,16 @@
         <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3462,19 +3575,19 @@
         <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3486,16 +3599,16 @@
         <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3507,16 +3620,16 @@
         <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3528,16 +3641,16 @@
         <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3549,16 +3662,16 @@
         <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3570,16 +3683,16 @@
         <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3591,16 +3704,16 @@
         <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3612,19 +3725,19 @@
         <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3636,16 +3749,16 @@
         <v>42</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3657,16 +3770,16 @@
         <v>43</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3678,16 +3791,16 @@
         <v>44</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3699,19 +3812,19 @@
         <v>46</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -3723,16 +3836,16 @@
         <v>47</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3744,16 +3857,16 @@
         <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3765,19 +3878,19 @@
         <v>49</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3789,16 +3902,16 @@
         <v>50</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3810,16 +3923,16 @@
         <v>51</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E25" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -3831,16 +3944,16 @@
         <v>52</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -3852,19 +3965,19 @@
         <v>53</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -3876,19 +3989,19 @@
         <v>54</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E28" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -3900,19 +4013,19 @@
         <v>55</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -3924,19 +4037,19 @@
         <v>56</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -3948,19 +4061,19 @@
         <v>57</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E31" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -3972,16 +4085,16 @@
         <v>58</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -3993,16 +4106,16 @@
         <v>59</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -4014,16 +4127,16 @@
         <v>60</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E34" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -4035,16 +4148,16 @@
         <v>61</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E35" t="s">
         <v>19</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -4056,16 +4169,16 @@
         <v>62</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -4077,16 +4190,16 @@
         <v>63</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -4095,22 +4208,22 @@
         <v>measurementType</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -4119,22 +4232,22 @@
         <v>measurementType</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E39" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G39" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -4143,22 +4256,22 @@
         <v>measurementType</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G40" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -4167,22 +4280,22 @@
         <v>measurementType</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G41" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -4191,22 +4304,22 @@
         <v>measurementType</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E42" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G42" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -4215,22 +4328,22 @@
         <v>measurementType</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E43" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G43" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -4239,22 +4352,22 @@
         <v>measurementType</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G44" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -4263,22 +4376,22 @@
         <v>measurementType</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D45" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E45" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G45" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -4287,22 +4400,22 @@
         <v>measurementType</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G46" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -4311,22 +4424,22 @@
         <v>measurementType</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G47" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -4335,22 +4448,22 @@
         <v>measurementType</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E48" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G48" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -4359,22 +4472,22 @@
         <v>measurementType</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D49" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E49" t="s">
         <v>19</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G49" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -4383,22 +4496,22 @@
         <v>measurementType</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E50" t="s">
         <v>19</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -4407,22 +4520,22 @@
         <v>measurementType</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D51" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E51" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G51" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -4431,22 +4544,22 @@
         <v>measurementType</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E52" t="s">
         <v>19</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G52" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -4455,22 +4568,22 @@
         <v>measurementType</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D53" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E53" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G53" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -4479,22 +4592,22 @@
         <v>measurementType</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G54" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -4503,22 +4616,22 @@
         <v>measurementType</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D55" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E55" t="s">
         <v>19</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G55" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -4527,22 +4640,22 @@
         <v>measurementType</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E56" t="s">
         <v>19</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G56" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -4551,22 +4664,22 @@
         <v>measurementType</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D57" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E57" t="s">
         <v>19</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -4575,22 +4688,22 @@
         <v>measurementType</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D58" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E58" t="s">
         <v>19</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G58" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -4599,22 +4712,22 @@
         <v>measurementType</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D59" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E59" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G59" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -4623,22 +4736,22 @@
         <v>measurementType</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D60" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G60" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -4647,22 +4760,22 @@
         <v>measurementType</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D61" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E61" t="s">
         <v>19</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G61" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -4671,22 +4784,22 @@
         <v>measurementType</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D62" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G62" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -4695,22 +4808,22 @@
         <v>measurementType</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D63" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G63" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -4719,22 +4832,22 @@
         <v>measurementType</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D64" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E64" t="s">
         <v>19</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G64" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -4743,22 +4856,22 @@
         <v>measurementType</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D65" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E65" t="s">
         <v>19</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G65" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -4767,22 +4880,22 @@
         <v>measurementType</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D66" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E66" t="s">
         <v>19</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G66" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -4791,22 +4904,22 @@
         <v>measurementType</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D67" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G67" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -4815,19 +4928,19 @@
         <v>#REF!</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D68" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E68" t="s">
         <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -4836,19 +4949,19 @@
         <v>#REF!</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D69" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E69" t="s">
         <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -4857,19 +4970,19 @@
         <v>#REF!</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D70" t="s">
+        <v>307</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s">
         <v>303</v>
       </c>
-      <c r="D70" t="s">
-        <v>304</v>
-      </c>
-      <c r="E70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -4878,19 +4991,19 @@
         <v>#REF!</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D71" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>50</v>
       </c>
@@ -4899,13 +5012,13 @@
         <v>samplingProtocol</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E72" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -4914,13 +5027,13 @@
         <v>samplingProtocol</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E73" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>50</v>
       </c>
@@ -4929,13 +5042,13 @@
         <v>samplingProtocol</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>50</v>
       </c>
@@ -4944,13 +5057,13 @@
         <v>samplingProtocol</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>50</v>
       </c>
@@ -4959,13 +5072,13 @@
         <v>samplingProtocol</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E76" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -4974,142 +5087,152 @@
         <v>samplingProtocol</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E77" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="G77" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="str">
-        <f>MetadataDict!$B$19</f>
+        <f>MetadataDict!$B$20</f>
         <v>datasetID</v>
       </c>
       <c r="D78" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="str">
-        <f>MetadataDict!$B$19</f>
+        <f>MetadataDict!$B$20</f>
         <v>datasetID</v>
       </c>
       <c r="D79" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E79" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>80</v>
       </c>
       <c r="B80" t="str">
-        <f>MetadataDict!$B$19</f>
+        <f>MetadataDict!$B$20</f>
         <v>datasetID</v>
       </c>
       <c r="D80" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E80" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81" t="str">
-        <f>MetadataDict!$B$19</f>
+        <f>MetadataDict!$B$20</f>
         <v>datasetID</v>
       </c>
       <c r="D81" t="s">
+        <v>319</v>
+      </c>
+      <c r="E81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>370</v>
+      </c>
+      <c r="C82" t="s">
+        <v>320</v>
+      </c>
+      <c r="D82" t="s">
+        <v>321</v>
+      </c>
+      <c r="E82" t="s">
+        <v>322</v>
+      </c>
+      <c r="G82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" t="s">
+        <v>370</v>
+      </c>
+      <c r="C83" t="s">
+        <v>323</v>
+      </c>
+      <c r="D83" t="s">
+        <v>324</v>
+      </c>
+      <c r="E83" t="s">
+        <v>322</v>
+      </c>
+      <c r="G83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" t="str">
+        <f>MetadataDict!$B$30</f>
+        <v>datasetID</v>
+      </c>
+      <c r="D84" t="s">
         <v>316</v>
       </c>
-      <c r="E81" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
-        <v>97</v>
-      </c>
-      <c r="B82" t="str">
-        <f>MetadataDict!$B$28</f>
+      <c r="E84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" t="str">
+        <f>MetadataDict!$B$30</f>
         <v>datasetID</v>
       </c>
-      <c r="D82" t="s">
-        <v>313</v>
-      </c>
-      <c r="E82" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
-        <v>97</v>
-      </c>
-      <c r="B83" t="str">
-        <f>MetadataDict!$B$28</f>
+      <c r="D85" t="s">
+        <v>317</v>
+      </c>
+      <c r="E85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" t="str">
+        <f>MetadataDict!$B$30</f>
         <v>datasetID</v>
-      </c>
-      <c r="D83" t="s">
-        <v>314</v>
-      </c>
-      <c r="E83" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
-        <v>97</v>
-      </c>
-      <c r="B84" t="str">
-        <f>MetadataDict!$B$28</f>
-        <v>datasetID</v>
-      </c>
-      <c r="D84" t="s">
-        <v>315</v>
-      </c>
-      <c r="E84" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
-        <v>97</v>
-      </c>
-      <c r="B85" t="str">
-        <f>MetadataDict!$B$28</f>
-        <v>datasetID</v>
-      </c>
-      <c r="D85" t="s">
-        <v>316</v>
-      </c>
-      <c r="E85" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s">
-        <v>97</v>
-      </c>
-      <c r="B86" s="6" t="str">
-        <f>MetadataDict!$B$32</f>
-        <v>institutionCode</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="D86" t="s">
         <v>318</v>
@@ -5117,244 +5240,235 @@
       <c r="E86" t="s">
         <v>76</v>
       </c>
-      <c r="G86" t="s">
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" t="str">
+        <f>MetadataDict!$B$30</f>
+        <v>datasetID</v>
+      </c>
+      <c r="D87" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
-        <v>97</v>
-      </c>
-      <c r="B87" s="6" t="str">
+      <c r="E87" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="6" t="str">
+        <f>MetadataDict!$B$34</f>
+        <v>institutionCode</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D88" t="s">
+        <v>326</v>
+      </c>
+      <c r="E88" t="s">
+        <v>76</v>
+      </c>
+      <c r="G88" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="6" t="str">
+        <f>MetadataDict!$B$34</f>
+        <v>institutionCode</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D89" t="s">
+        <v>329</v>
+      </c>
+      <c r="E89" t="s">
+        <v>76</v>
+      </c>
+      <c r="G89" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" s="6" t="str">
+        <f>MetadataDict!$B$34</f>
+        <v>institutionCode</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D90" t="s">
+        <v>331</v>
+      </c>
+      <c r="E90" t="s">
+        <v>76</v>
+      </c>
+      <c r="G90" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="str">
         <f>MetadataDict!$B$32</f>
-        <v>institutionCode</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D87" t="s">
-        <v>321</v>
-      </c>
-      <c r="E87" t="s">
-        <v>76</v>
-      </c>
-      <c r="G87" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" s="6" t="str">
+        <v>datasetName</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E91" t="s">
+        <v>76</v>
+      </c>
+      <c r="G91" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" t="str">
         <f>MetadataDict!$B$32</f>
-        <v>institutionCode</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D88" t="s">
-        <v>323</v>
-      </c>
-      <c r="E88" t="s">
-        <v>76</v>
-      </c>
-      <c r="G88" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
-        <v>97</v>
-      </c>
-      <c r="B89" t="str">
-        <f>MetadataDict!$B$30</f>
         <v>datasetName</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="E89" t="s">
-        <v>76</v>
-      </c>
-      <c r="G89" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>97</v>
-      </c>
-      <c r="B90" t="str">
-        <f>MetadataDict!$B$30</f>
+      <c r="C92" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E92" t="s">
+        <v>76</v>
+      </c>
+      <c r="G92" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="str">
+        <f>MetadataDict!$B$32</f>
         <v>datasetName</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E90" t="s">
-        <v>76</v>
-      </c>
-      <c r="G90" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" t="str">
-        <f>MetadataDict!$B$30</f>
+      <c r="C93" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E93" t="s">
+        <v>76</v>
+      </c>
+      <c r="G93" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="str">
+        <f>MetadataDict!$B$32</f>
         <v>datasetName</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="E91" t="s">
-        <v>76</v>
-      </c>
-      <c r="G91" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92" t="str">
-        <f>MetadataDict!$B$30</f>
-        <v>datasetName</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E92" t="s">
-        <v>76</v>
-      </c>
-      <c r="G92" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93" t="str">
-        <f>MetadataDict!$B$37</f>
+      <c r="C94" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E94" t="s">
+        <v>76</v>
+      </c>
+      <c r="G94" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="str">
+        <f>MetadataDict!$B$39</f>
         <v xml:space="preserve">projectName </v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="E93" t="s">
-        <v>76</v>
-      </c>
-      <c r="G93" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" t="str">
-        <f>MetadataDict!$B$37</f>
+      <c r="C95" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E95" t="s">
+        <v>76</v>
+      </c>
+      <c r="G95" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" t="str">
+        <f>MetadataDict!$B$39</f>
         <v xml:space="preserve">projectName </v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="E94" t="s">
-        <v>76</v>
-      </c>
-      <c r="G94" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" t="str">
-        <f>MetadataDict!$B$37</f>
+      <c r="C96" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E96" t="s">
+        <v>76</v>
+      </c>
+      <c r="G96" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="str">
+        <f>MetadataDict!$B$39</f>
         <v xml:space="preserve">projectName </v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E95" t="s">
-        <v>76</v>
-      </c>
-      <c r="G95" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" t="str">
-        <f>MetadataDict!$B$37</f>
+      <c r="C97" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E97" t="s">
+        <v>76</v>
+      </c>
+      <c r="G97" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="str">
+        <f>MetadataDict!$B$39</f>
         <v xml:space="preserve">projectName </v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E96" t="s">
-        <v>76</v>
-      </c>
-      <c r="G96" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" s="6" t="str">
-        <f>MetadataDict!$B$36</f>
-        <v>projectCode</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D97" t="s">
-        <v>299</v>
-      </c>
-      <c r="E97" t="s">
-        <v>76</v>
-      </c>
-      <c r="G97" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" s="6" t="str">
-        <f>MetadataDict!$B$36</f>
-        <v>projectCode</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D98" t="s">
-        <v>306</v>
+      <c r="C98" s="6" t="s">
+        <v>309</v>
       </c>
       <c r="E98" t="s">
         <v>76</v>
       </c>
       <c r="G98" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B99" s="6" t="str">
-        <f>MetadataDict!$B$36</f>
+        <f>MetadataDict!$B$38</f>
         <v>projectCode</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -5367,496 +5481,493 @@
         <v>76</v>
       </c>
       <c r="G99" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B100" s="6" t="str">
-        <f>MetadataDict!$B$36</f>
+        <f>MetadataDict!$B$38</f>
         <v>projectCode</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D100" t="s">
+        <v>309</v>
+      </c>
+      <c r="E100" t="s">
+        <v>76</v>
+      </c>
+      <c r="G100" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="6" t="str">
+        <f>MetadataDict!$B$38</f>
+        <v>projectCode</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E100" t="s">
-        <v>76</v>
-      </c>
-      <c r="G100" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s">
-        <v>137</v>
-      </c>
-      <c r="B101" t="str">
-        <f>MetadataDict!$B$39</f>
+      <c r="D101" t="s">
+        <v>305</v>
+      </c>
+      <c r="E101" t="s">
+        <v>76</v>
+      </c>
+      <c r="G101" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="6" t="str">
+        <f>MetadataDict!$B$38</f>
+        <v>projectCode</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D102" t="s">
+        <v>307</v>
+      </c>
+      <c r="E102" t="s">
+        <v>76</v>
+      </c>
+      <c r="G102" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" t="str">
+        <f>MetadataDict!$B$41</f>
         <v>measurementType</v>
       </c>
-      <c r="C101" t="s">
-        <v>182</v>
-      </c>
-      <c r="D101" t="s">
-        <v>183</v>
-      </c>
-      <c r="E101" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s">
-        <v>137</v>
-      </c>
-      <c r="B102" t="str">
-        <f>MetadataDict!$B$39</f>
+      <c r="C103" t="s">
+        <v>185</v>
+      </c>
+      <c r="D103" t="s">
+        <v>186</v>
+      </c>
+      <c r="E103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" t="str">
+        <f>MetadataDict!$B$41</f>
         <v>measurementType</v>
       </c>
-      <c r="C102" t="s">
-        <v>184</v>
-      </c>
-      <c r="D102" t="s">
-        <v>185</v>
-      </c>
-      <c r="E102" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" t="s">
-        <v>137</v>
-      </c>
-      <c r="B103" t="str">
-        <f>MetadataDict!$B$39</f>
+      <c r="C104" t="s">
+        <v>187</v>
+      </c>
+      <c r="D104" t="s">
+        <v>188</v>
+      </c>
+      <c r="E104" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" t="str">
+        <f>MetadataDict!$B$41</f>
         <v>measurementType</v>
       </c>
-      <c r="C103" t="s">
-        <v>186</v>
-      </c>
-      <c r="D103" t="s">
-        <v>187</v>
-      </c>
-      <c r="E103" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" t="s">
-        <v>137</v>
-      </c>
-      <c r="B104" t="str">
-        <f>MetadataDict!$B$39</f>
+      <c r="C105" t="s">
+        <v>189</v>
+      </c>
+      <c r="D105" t="s">
+        <v>190</v>
+      </c>
+      <c r="E105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" t="str">
+        <f>MetadataDict!$B$41</f>
         <v>measurementType</v>
       </c>
-      <c r="C104" t="s">
-        <v>188</v>
-      </c>
-      <c r="D104" t="s">
-        <v>189</v>
-      </c>
-      <c r="E104" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" t="s">
-        <v>137</v>
-      </c>
-      <c r="B105" t="str">
-        <f>MetadataDict!$B$39</f>
+      <c r="C106" t="s">
+        <v>191</v>
+      </c>
+      <c r="D106" t="s">
+        <v>192</v>
+      </c>
+      <c r="E106" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" t="str">
+        <f>MetadataDict!$B$41</f>
         <v>measurementType</v>
       </c>
-      <c r="C105" t="s">
-        <v>190</v>
-      </c>
-      <c r="D105" t="s">
-        <v>191</v>
-      </c>
-      <c r="E105" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" t="s">
-        <v>137</v>
-      </c>
-      <c r="B106" t="str">
-        <f>MetadataDict!$B$39</f>
+      <c r="C107" t="s">
+        <v>193</v>
+      </c>
+      <c r="D107" t="s">
+        <v>194</v>
+      </c>
+      <c r="E107" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>140</v>
+      </c>
+      <c r="B108" t="str">
+        <f>MetadataDict!$B$41</f>
         <v>measurementType</v>
       </c>
-      <c r="C106" t="s">
-        <v>192</v>
-      </c>
-      <c r="D106" t="s">
-        <v>193</v>
-      </c>
-      <c r="E106" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" t="s">
-        <v>137</v>
-      </c>
-      <c r="B107" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="C108" t="s">
+        <v>195</v>
+      </c>
+      <c r="D108" t="s">
+        <v>196</v>
+      </c>
+      <c r="E108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>140</v>
+      </c>
+      <c r="B109" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C109" s="4">
         <v>33</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="E107" t="s">
-        <v>76</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" t="s">
-        <v>137</v>
-      </c>
-      <c r="B108" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D109" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E109" t="s">
+        <v>76</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>140</v>
+      </c>
+      <c r="B110" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C110" s="4">
         <v>34</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E108" t="s">
-        <v>76</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" t="s">
-        <v>137</v>
-      </c>
-      <c r="B109" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D110" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E110" t="s">
+        <v>76</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>140</v>
+      </c>
+      <c r="B111" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C111" s="4">
         <v>35</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E109" t="s">
-        <v>76</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" t="s">
-        <v>137</v>
-      </c>
-      <c r="B110" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D111" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E111" t="s">
+        <v>76</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C112" s="4">
         <v>36</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E110" t="s">
-        <v>76</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" t="s">
-        <v>137</v>
-      </c>
-      <c r="B111" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D112" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E112" t="s">
+        <v>76</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C113" s="4">
         <v>37</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E111" t="s">
-        <v>76</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" t="s">
-        <v>137</v>
-      </c>
-      <c r="B112" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D113" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E113" t="s">
+        <v>76</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C114" s="4">
         <v>38</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E112" t="s">
-        <v>76</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" t="s">
-        <v>137</v>
-      </c>
-      <c r="B113" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D114" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E114" t="s">
+        <v>76</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>140</v>
+      </c>
+      <c r="B115" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C115" s="4">
         <v>39</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E113" t="s">
-        <v>76</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" t="s">
-        <v>137</v>
-      </c>
-      <c r="B114" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D115" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E115" t="s">
+        <v>76</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>140</v>
+      </c>
+      <c r="B116" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C116" s="4">
         <v>40</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E114" t="s">
-        <v>76</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15">
-      <c r="A115" t="s">
-        <v>137</v>
-      </c>
-      <c r="B115" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D116" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E116" t="s">
+        <v>76</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C117" s="4">
         <v>41</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E115" t="s">
-        <v>76</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G115" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" t="s">
-        <v>137</v>
-      </c>
-      <c r="B116" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D117" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E117" t="s">
+        <v>76</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C118" s="4">
         <v>42</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E116" t="s">
-        <v>76</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" t="s">
-        <v>137</v>
-      </c>
-      <c r="B117" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D118" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E118" t="s">
+        <v>76</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>140</v>
+      </c>
+      <c r="B119" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C119" s="4">
         <v>43</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E117" t="s">
-        <v>76</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" t="s">
-        <v>137</v>
-      </c>
-      <c r="B118" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D119" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E119" t="s">
+        <v>76</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>140</v>
+      </c>
+      <c r="B120" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C120" s="4">
         <v>44</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E118" t="s">
-        <v>76</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15">
-      <c r="A119" t="s">
-        <v>137</v>
-      </c>
-      <c r="B119" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D120" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E120" t="s">
+        <v>76</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>140</v>
+      </c>
+      <c r="B121" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C121" s="4">
         <v>46</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E119" t="s">
-        <v>76</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" t="s">
-        <v>137</v>
-      </c>
-      <c r="B120" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D121" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E121" t="s">
+        <v>76</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>140</v>
+      </c>
+      <c r="B122" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C122" s="4">
         <v>47</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E120" t="s">
-        <v>76</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" t="s">
-        <v>137</v>
-      </c>
-      <c r="B121" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D122" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E122" t="s">
+        <v>76</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C123" s="4">
         <v>48</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E121" t="s">
-        <v>76</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15">
-      <c r="A122" t="s">
-        <v>137</v>
-      </c>
-      <c r="B122" t="str">
-        <f>MetadataDict!$B$40</f>
-        <v>termID</v>
-      </c>
-      <c r="C122" s="4">
-        <v>49</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E122" t="s">
-        <v>76</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" t="s">
-        <v>137</v>
-      </c>
-      <c r="B123" t="str">
-        <f>MetadataDict!$B$40</f>
-        <v>termID</v>
-      </c>
-      <c r="C123" s="4">
-        <v>50</v>
-      </c>
       <c r="D123" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E123" t="s">
         <v>76</v>
@@ -5865,223 +5976,226 @@
         <v>217</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B124" t="str">
-        <f>MetadataDict!$B$40</f>
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
       <c r="C124" s="4">
+        <v>49</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E124" t="s">
+        <v>76</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>140</v>
+      </c>
+      <c r="B125" t="str">
+        <f>MetadataDict!$B$42</f>
+        <v>termID</v>
+      </c>
+      <c r="C125" s="4">
+        <v>50</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E125" t="s">
+        <v>76</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>140</v>
+      </c>
+      <c r="B126" t="str">
+        <f>MetadataDict!$B$42</f>
+        <v>termID</v>
+      </c>
+      <c r="C126" s="4">
         <v>51</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E124" t="s">
-        <v>76</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" t="s">
-        <v>137</v>
-      </c>
-      <c r="B125" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D126" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E126" t="s">
+        <v>76</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>140</v>
+      </c>
+      <c r="B127" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C127" s="4">
         <v>52</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E125" t="s">
-        <v>76</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="15">
-      <c r="A126" t="s">
-        <v>137</v>
-      </c>
-      <c r="B126" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D127" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E127" t="s">
+        <v>76</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C128" s="4">
         <v>53</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E126" t="s">
-        <v>76</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G126" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="15">
-      <c r="A127" t="s">
-        <v>137</v>
-      </c>
-      <c r="B127" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D128" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E128" t="s">
+        <v>76</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C129" s="4">
         <v>54</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E127" t="s">
-        <v>76</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G127" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15">
-      <c r="A128" t="s">
-        <v>137</v>
-      </c>
-      <c r="B128" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D129" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E129" t="s">
+        <v>76</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>140</v>
+      </c>
+      <c r="B130" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C130" s="4">
         <v>55</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E128" t="s">
-        <v>76</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G128" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15">
-      <c r="A129" t="s">
-        <v>137</v>
-      </c>
-      <c r="B129" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D130" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E130" t="s">
+        <v>76</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C131" s="4">
         <v>56</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E129" t="s">
-        <v>76</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G129" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15">
-      <c r="A130" t="s">
-        <v>137</v>
-      </c>
-      <c r="B130" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D131" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E131" t="s">
+        <v>76</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C132" s="4">
         <v>57</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E130" t="s">
-        <v>76</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G130" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" t="s">
-        <v>137</v>
-      </c>
-      <c r="B131" t="str">
-        <f>MetadataDict!$B$40</f>
+      <c r="D132" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E132" t="s">
+        <v>76</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="str">
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C133" s="4">
         <v>58</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E131" t="s">
-        <v>76</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" t="s">
-        <v>137</v>
-      </c>
-      <c r="B132" t="str">
-        <f>MetadataDict!$B$40</f>
-        <v>termID</v>
-      </c>
-      <c r="C132" s="4">
-        <v>59</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E132" t="s">
-        <v>76</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" t="s">
-        <v>137</v>
-      </c>
-      <c r="B133" t="str">
-        <f>MetadataDict!$B$40</f>
-        <v>termID</v>
-      </c>
-      <c r="C133" s="4">
-        <v>60</v>
-      </c>
       <c r="D133" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E133" t="s">
         <v>76</v>
@@ -6090,61 +6204,61 @@
         <v>229</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B134" t="str">
-        <f>MetadataDict!$B$40</f>
+        <f>MetadataDict!$B$42</f>
         <v>termID</v>
       </c>
       <c r="C134" s="4">
+        <v>59</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E134" t="s">
+        <v>76</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135" t="str">
+        <f>MetadataDict!$B$42</f>
+        <v>termID</v>
+      </c>
+      <c r="C135" s="4">
+        <v>60</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E135" t="s">
+        <v>76</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" t="str">
+        <f>MetadataDict!$B$42</f>
+        <v>termID</v>
+      </c>
+      <c r="C136" s="4">
         <v>61</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E134" t="s">
-        <v>76</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" t="s">
-        <v>137</v>
-      </c>
-      <c r="B135" t="str">
-        <f>MetadataDict!$B$40</f>
-        <v>termID</v>
-      </c>
-      <c r="C135" s="4">
-        <v>62</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E135" t="s">
-        <v>76</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" t="s">
-        <v>137</v>
-      </c>
-      <c r="B136" t="str">
-        <f>MetadataDict!$B$40</f>
-        <v>termID</v>
-      </c>
-      <c r="C136" s="4">
-        <v>63</v>
-      </c>
       <c r="D136" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E136" t="s">
         <v>76</v>
@@ -6153,367 +6267,364 @@
         <v>234</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B137" t="str">
-        <f>MetadataDict!$B$41</f>
+        <f>MetadataDict!$B$42</f>
+        <v>termID</v>
+      </c>
+      <c r="C137" s="4">
+        <v>62</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E137" t="s">
+        <v>76</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="str">
+        <f>MetadataDict!$B$42</f>
+        <v>termID</v>
+      </c>
+      <c r="C138" s="4">
+        <v>63</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E138" t="s">
+        <v>76</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E137" t="s">
-        <v>76</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="15">
-      <c r="A138" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="C139" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E139" t="s">
+        <v>76</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E138" t="s">
-        <v>76</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G138" s="12" t="s">
+      <c r="C140" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E140" t="s">
+        <v>76</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="str">
+        <f>MetadataDict!$B$43</f>
+        <v>term</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E141" t="s">
+        <v>76</v>
+      </c>
+      <c r="F141" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
-      <c r="A139" t="s">
-        <v>137</v>
-      </c>
-      <c r="B139" t="str">
-        <f>MetadataDict!$B$41</f>
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E139" t="s">
-        <v>76</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" t="s">
-        <v>137</v>
-      </c>
-      <c r="B140" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="C142" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E142" t="s">
+        <v>76</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E140" t="s">
-        <v>76</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" t="s">
-        <v>137</v>
-      </c>
-      <c r="B141" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="C143" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E143" t="s">
+        <v>76</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>140</v>
+      </c>
+      <c r="B144" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E141" t="s">
-        <v>76</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" t="s">
-        <v>137</v>
-      </c>
-      <c r="B142" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="C144" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E144" t="s">
+        <v>76</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>140</v>
+      </c>
+      <c r="B145" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E142" t="s">
-        <v>76</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" t="s">
-        <v>137</v>
-      </c>
-      <c r="B143" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="C145" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E145" t="s">
+        <v>76</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>140</v>
+      </c>
+      <c r="B146" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E143" t="s">
-        <v>76</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" t="s">
-        <v>137</v>
-      </c>
-      <c r="B144" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="C146" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D146" t="s">
+        <v>340</v>
+      </c>
+      <c r="E146" t="s">
+        <v>76</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>140</v>
+      </c>
+      <c r="B147" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D144" t="s">
-        <v>332</v>
-      </c>
-      <c r="E144" t="s">
-        <v>76</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="15">
-      <c r="A145" t="s">
-        <v>137</v>
-      </c>
-      <c r="B145" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="C147" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E147" t="s">
+        <v>76</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>140</v>
+      </c>
+      <c r="B148" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E145" t="s">
-        <v>76</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G145" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" t="s">
-        <v>137</v>
-      </c>
-      <c r="B146" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="C148" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E148" t="s">
+        <v>76</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>140</v>
+      </c>
+      <c r="B149" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E146" t="s">
-        <v>76</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" t="s">
-        <v>137</v>
-      </c>
-      <c r="B147" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="C149" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E149" t="s">
+        <v>76</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E147" t="s">
-        <v>76</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" t="s">
-        <v>137</v>
-      </c>
-      <c r="B148" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="C150" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D150" t="s">
+        <v>264</v>
+      </c>
+      <c r="E150" t="s">
+        <v>76</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>140</v>
+      </c>
+      <c r="B151" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D148" t="s">
-        <v>261</v>
-      </c>
-      <c r="E148" t="s">
-        <v>76</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="15">
-      <c r="A149" t="s">
-        <v>137</v>
-      </c>
-      <c r="B149" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="C151" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E151" t="s">
+        <v>76</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G151" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>140</v>
+      </c>
+      <c r="B152" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E149" t="s">
-        <v>76</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G149" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" t="s">
-        <v>137</v>
-      </c>
-      <c r="B150" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="C152" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D152" t="s">
+        <v>268</v>
+      </c>
+      <c r="E152" t="s">
+        <v>76</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>140</v>
+      </c>
+      <c r="B153" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D150" t="s">
-        <v>265</v>
-      </c>
-      <c r="E150" t="s">
-        <v>76</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" t="s">
-        <v>137</v>
-      </c>
-      <c r="B151" t="str">
-        <f>MetadataDict!$B$41</f>
-        <v>term</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E151" t="s">
-        <v>76</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="15">
-      <c r="A152" t="s">
-        <v>137</v>
-      </c>
-      <c r="B152" t="str">
-        <f>MetadataDict!$B$41</f>
-        <v>term</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="C153" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E152" t="s">
-        <v>76</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G152" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" t="s">
-        <v>137</v>
-      </c>
-      <c r="B153" t="str">
-        <f>MetadataDict!$B$41</f>
-        <v>term</v>
-      </c>
-      <c r="C153" s="4" t="s">
+      <c r="D153" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="E153" t="s">
         <v>76</v>
@@ -6522,223 +6633,226 @@
         <v>217</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B154" t="str">
-        <f>MetadataDict!$B$41</f>
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
       <c r="C154" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D154" t="s">
         <v>272</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
+        <v>76</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>140</v>
+      </c>
+      <c r="B155" t="str">
+        <f>MetadataDict!$B$43</f>
+        <v>term</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E154" t="s">
-        <v>76</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" t="s">
-        <v>137</v>
-      </c>
-      <c r="B155" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="D155" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E155" t="s">
+        <v>76</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>140</v>
+      </c>
+      <c r="B156" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="C156" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E155" t="s">
-        <v>76</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="15">
-      <c r="A156" t="s">
-        <v>137</v>
-      </c>
-      <c r="B156" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="D156" t="s">
+        <v>276</v>
+      </c>
+      <c r="E156" t="s">
+        <v>76</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>140</v>
+      </c>
+      <c r="B157" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="C157" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E156" t="s">
-        <v>76</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G156" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="15">
-      <c r="A157" t="s">
-        <v>137</v>
-      </c>
-      <c r="B157" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="D157" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E157" t="s">
+        <v>76</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>140</v>
+      </c>
+      <c r="B158" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="C158" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E157" t="s">
-        <v>76</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G157" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="15">
-      <c r="A158" t="s">
-        <v>137</v>
-      </c>
-      <c r="B158" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="D158" t="s">
+        <v>280</v>
+      </c>
+      <c r="E158" t="s">
+        <v>76</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>140</v>
+      </c>
+      <c r="B159" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="C159" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E158" t="s">
-        <v>76</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G158" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="15">
-      <c r="A159" t="s">
-        <v>137</v>
-      </c>
-      <c r="B159" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="D159" t="s">
+        <v>282</v>
+      </c>
+      <c r="E159" t="s">
+        <v>76</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G159" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>140</v>
+      </c>
+      <c r="B160" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="C160" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E159" t="s">
-        <v>76</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G159" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="15">
-      <c r="A160" t="s">
-        <v>137</v>
-      </c>
-      <c r="B160" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="D160" t="s">
+        <v>284</v>
+      </c>
+      <c r="E160" t="s">
+        <v>76</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G160" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>140</v>
+      </c>
+      <c r="B161" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="C161" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E160" t="s">
-        <v>76</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G160" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" t="s">
-        <v>137</v>
-      </c>
-      <c r="B161" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="D161" t="s">
+        <v>286</v>
+      </c>
+      <c r="E161" t="s">
+        <v>76</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G161" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>140</v>
+      </c>
+      <c r="B162" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C161" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="C162" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E161" t="s">
-        <v>76</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" t="s">
-        <v>137</v>
-      </c>
-      <c r="B162" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="D162" t="s">
+        <v>288</v>
+      </c>
+      <c r="E162" t="s">
+        <v>76</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>140</v>
+      </c>
+      <c r="B163" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D162" t="s">
-        <v>333</v>
-      </c>
-      <c r="E162" t="s">
-        <v>76</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" t="s">
-        <v>137</v>
-      </c>
-      <c r="B163" t="str">
-        <f>MetadataDict!$B$41</f>
-        <v>term</v>
-      </c>
       <c r="C163" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D163" t="s">
         <v>290</v>
-      </c>
-      <c r="D163" t="s">
-        <v>291</v>
       </c>
       <c r="E163" t="s">
         <v>76</v>
@@ -6747,61 +6861,61 @@
         <v>229</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B164" t="str">
-        <f>MetadataDict!$B$41</f>
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D164" t="s">
+        <v>341</v>
+      </c>
+      <c r="E164" t="s">
+        <v>76</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>140</v>
+      </c>
+      <c r="B165" t="str">
+        <f>MetadataDict!$B$43</f>
+        <v>term</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E164" t="s">
-        <v>76</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" t="s">
-        <v>137</v>
-      </c>
-      <c r="B165" t="str">
-        <f>MetadataDict!$B$41</f>
+      <c r="D165" t="s">
+        <v>294</v>
+      </c>
+      <c r="E165" t="s">
+        <v>76</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>140</v>
+      </c>
+      <c r="B166" t="str">
+        <f>MetadataDict!$B$43</f>
         <v>term</v>
       </c>
-      <c r="C165" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="C166" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E165" t="s">
-        <v>76</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" t="s">
-        <v>137</v>
-      </c>
-      <c r="B166" t="str">
-        <f>MetadataDict!$B$41</f>
-        <v>term</v>
-      </c>
-      <c r="C166" s="4" t="s">
+      <c r="D166" t="s">
         <v>296</v>
-      </c>
-      <c r="D166" t="s">
-        <v>297</v>
       </c>
       <c r="E166" t="s">
         <v>76</v>
@@ -6810,992 +6924,1095 @@
         <v>234</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B167" t="str">
-        <f>MetadataDict!$B$45</f>
+        <f>MetadataDict!$B$43</f>
+        <v>term</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D167" t="s">
+        <v>298</v>
+      </c>
+      <c r="E167" t="s">
+        <v>76</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>140</v>
+      </c>
+      <c r="B168" t="str">
+        <f>MetadataDict!$B$43</f>
+        <v>term</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D168" t="s">
+        <v>300</v>
+      </c>
+      <c r="E168" t="s">
+        <v>76</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>140</v>
+      </c>
+      <c r="B169" t="str">
+        <f>MetadataDict!$B$47</f>
         <v>dataType</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D167" t="s">
-        <v>335</v>
-      </c>
-      <c r="E167" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" t="s">
-        <v>137</v>
-      </c>
-      <c r="B168" t="str">
-        <f>MetadataDict!$B$46</f>
+      <c r="C169" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D169" t="s">
+        <v>343</v>
+      </c>
+      <c r="E169" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>140</v>
+      </c>
+      <c r="B170" t="str">
+        <f>MetadataDict!$B$48</f>
         <v>measurementUnit</v>
       </c>
-      <c r="C168" t="s">
-        <v>197</v>
-      </c>
-      <c r="D168" t="s">
-        <v>197</v>
-      </c>
-      <c r="E168" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" t="s">
-        <v>137</v>
-      </c>
-      <c r="B169" t="str">
-        <f>MetadataDict!$B$46</f>
+      <c r="C170" t="s">
+        <v>200</v>
+      </c>
+      <c r="D170" t="s">
+        <v>200</v>
+      </c>
+      <c r="E170" t="s">
+        <v>19</v>
+      </c>
+      <c r="G170" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>140</v>
+      </c>
+      <c r="B171" t="str">
+        <f>MetadataDict!$B$48</f>
         <v>measurementUnit</v>
       </c>
-      <c r="C169" t="s">
-        <v>202</v>
-      </c>
-      <c r="D169" t="s">
-        <v>337</v>
-      </c>
-      <c r="E169" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" t="s">
-        <v>137</v>
-      </c>
-      <c r="B170" t="str">
-        <f>MetadataDict!$B$46</f>
+      <c r="C171" t="s">
+        <v>205</v>
+      </c>
+      <c r="D171" t="s">
+        <v>345</v>
+      </c>
+      <c r="E171" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>140</v>
+      </c>
+      <c r="B172" t="str">
+        <f>MetadataDict!$B$48</f>
         <v>measurementUnit</v>
       </c>
-      <c r="C170" t="s">
-        <v>253</v>
-      </c>
-      <c r="D170" t="s">
-        <v>338</v>
-      </c>
-      <c r="E170" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" t="s">
-        <v>137</v>
-      </c>
-      <c r="B171" t="str">
-        <f>MetadataDict!$B$46</f>
+      <c r="C172" t="s">
+        <v>256</v>
+      </c>
+      <c r="D172" t="s">
+        <v>346</v>
+      </c>
+      <c r="E172" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>140</v>
+      </c>
+      <c r="B173" t="str">
+        <f>MetadataDict!$B$48</f>
         <v>measurementUnit</v>
       </c>
-      <c r="C171" t="s">
-        <v>214</v>
-      </c>
-      <c r="D171" t="s">
-        <v>214</v>
-      </c>
-      <c r="E171" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" t="s">
-        <v>137</v>
-      </c>
-      <c r="B172" t="str">
-        <f>MetadataDict!$B$46</f>
+      <c r="C173" t="s">
+        <v>217</v>
+      </c>
+      <c r="D173" t="s">
+        <v>217</v>
+      </c>
+      <c r="E173" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>140</v>
+      </c>
+      <c r="B174" t="str">
+        <f>MetadataDict!$B$48</f>
         <v>measurementUnit</v>
       </c>
-      <c r="C172" t="s">
-        <v>217</v>
-      </c>
-      <c r="D172" t="s">
-        <v>339</v>
-      </c>
-      <c r="E172" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" t="s">
-        <v>137</v>
-      </c>
-      <c r="B173" t="str">
-        <f>MetadataDict!$B$46</f>
+      <c r="C174" t="s">
+        <v>220</v>
+      </c>
+      <c r="D174" t="s">
+        <v>347</v>
+      </c>
+      <c r="E174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>140</v>
+      </c>
+      <c r="B175" t="str">
+        <f>MetadataDict!$B$48</f>
         <v>measurementUnit</v>
       </c>
-      <c r="C173" t="s">
-        <v>226</v>
-      </c>
-      <c r="D173" t="s">
-        <v>340</v>
-      </c>
-      <c r="E173" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" t="s">
-        <v>137</v>
-      </c>
-      <c r="B174" t="str">
-        <f>MetadataDict!$B$46</f>
+      <c r="C175" t="s">
+        <v>229</v>
+      </c>
+      <c r="D175" t="s">
+        <v>348</v>
+      </c>
+      <c r="E175" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>140</v>
+      </c>
+      <c r="B176" t="str">
+        <f>MetadataDict!$B$48</f>
         <v>measurementUnit</v>
       </c>
-      <c r="C174" t="s">
-        <v>229</v>
-      </c>
-      <c r="D174" t="s">
-        <v>341</v>
-      </c>
-      <c r="E174" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" t="s">
-        <v>137</v>
-      </c>
-      <c r="B175" t="str">
-        <f>MetadataDict!$B$46</f>
+      <c r="C176" t="s">
+        <v>232</v>
+      </c>
+      <c r="D176" t="s">
+        <v>349</v>
+      </c>
+      <c r="E176" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>140</v>
+      </c>
+      <c r="B177" t="str">
+        <f>MetadataDict!$B$48</f>
         <v>measurementUnit</v>
       </c>
-      <c r="C175" t="s">
-        <v>231</v>
-      </c>
-      <c r="D175" t="s">
-        <v>342</v>
-      </c>
-      <c r="E175" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" t="s">
-        <v>137</v>
-      </c>
-      <c r="B176" t="str">
-        <f>MetadataDict!$B$46</f>
+      <c r="C177" t="s">
+        <v>234</v>
+      </c>
+      <c r="D177" t="s">
+        <v>350</v>
+      </c>
+      <c r="E177" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>140</v>
+      </c>
+      <c r="B178" t="str">
+        <f>MetadataDict!$B$48</f>
         <v>measurementUnit</v>
       </c>
-      <c r="C176" t="s">
-        <v>234</v>
-      </c>
-      <c r="D176" t="s">
-        <v>343</v>
-      </c>
-      <c r="E176" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" t="s">
-        <v>160</v>
-      </c>
-      <c r="B177" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="C178" t="s">
+        <v>237</v>
+      </c>
+      <c r="D178" t="s">
+        <v>351</v>
+      </c>
+      <c r="E178" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>163</v>
+      </c>
+      <c r="B179" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C177">
+      <c r="C179">
         <v>13</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D179" t="s">
         <v>92</v>
       </c>
-      <c r="E177" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" t="s">
-        <v>160</v>
-      </c>
-      <c r="B178" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="E179" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>163</v>
+      </c>
+      <c r="B180" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C178">
+      <c r="C180">
         <v>14</v>
       </c>
-      <c r="D178" t="s">
-        <v>95</v>
-      </c>
-      <c r="E178" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" t="s">
-        <v>160</v>
-      </c>
-      <c r="B179" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D180" t="s">
+        <v>98</v>
+      </c>
+      <c r="E180" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>163</v>
+      </c>
+      <c r="B181" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C179">
+      <c r="C181">
         <v>15</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D181" t="s">
         <v>84</v>
       </c>
-      <c r="E179" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" t="s">
-        <v>160</v>
-      </c>
-      <c r="B180" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="E181" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>163</v>
+      </c>
+      <c r="B182" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C180">
+      <c r="C182">
         <v>16</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D182" t="s">
         <v>90</v>
       </c>
-      <c r="E180" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" t="s">
-        <v>160</v>
-      </c>
-      <c r="B181" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="E182" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>163</v>
+      </c>
+      <c r="B183" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C181">
+      <c r="C183">
         <v>20</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D183" t="s">
         <v>73</v>
       </c>
-      <c r="E181" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" t="s">
-        <v>160</v>
-      </c>
-      <c r="B182" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="E183" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>163</v>
+      </c>
+      <c r="B184" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C182">
+      <c r="C184">
         <v>22</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D184" t="s">
         <v>53</v>
       </c>
-      <c r="E182" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" t="s">
-        <v>160</v>
-      </c>
-      <c r="B183" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="E184" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>163</v>
+      </c>
+      <c r="B185" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C183">
+      <c r="C185">
         <v>23</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D185" t="s">
         <v>70</v>
       </c>
-      <c r="E183" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" t="s">
-        <v>160</v>
-      </c>
-      <c r="B184" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="E185" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>163</v>
+      </c>
+      <c r="B186" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C184">
+      <c r="C186">
         <v>24</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D186" t="s">
         <v>77</v>
       </c>
-      <c r="E184" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" t="s">
-        <v>160</v>
-      </c>
-      <c r="B185" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="E186" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>163</v>
+      </c>
+      <c r="B187" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C185">
+      <c r="C187">
         <v>33</v>
       </c>
-      <c r="D185" t="s">
-        <v>235</v>
-      </c>
-      <c r="E185" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" t="s">
-        <v>160</v>
-      </c>
-      <c r="B186" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D187" t="s">
+        <v>238</v>
+      </c>
+      <c r="E187" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>163</v>
+      </c>
+      <c r="B188" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C186">
+      <c r="C188">
         <v>34</v>
       </c>
-      <c r="D186" t="s">
-        <v>238</v>
-      </c>
-      <c r="E186" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" t="s">
-        <v>160</v>
-      </c>
-      <c r="B187" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D188" t="s">
+        <v>241</v>
+      </c>
+      <c r="E188" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>163</v>
+      </c>
+      <c r="B189" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C187">
+      <c r="C189">
         <v>35</v>
       </c>
-      <c r="D187" t="s">
-        <v>241</v>
-      </c>
-      <c r="E187" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" t="s">
-        <v>160</v>
-      </c>
-      <c r="B188" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D189" t="s">
+        <v>244</v>
+      </c>
+      <c r="E189" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>163</v>
+      </c>
+      <c r="B190" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C188">
+      <c r="C190">
         <v>36</v>
       </c>
-      <c r="D188" t="s">
-        <v>243</v>
-      </c>
-      <c r="E188" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" t="s">
-        <v>160</v>
-      </c>
-      <c r="B189" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D190" t="s">
+        <v>246</v>
+      </c>
+      <c r="E190" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>163</v>
+      </c>
+      <c r="B191" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C189">
+      <c r="C191">
         <v>37</v>
       </c>
-      <c r="D189" t="s">
-        <v>245</v>
-      </c>
-      <c r="E189" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" t="s">
-        <v>160</v>
-      </c>
-      <c r="B190" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D191" t="s">
+        <v>248</v>
+      </c>
+      <c r="E191" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>163</v>
+      </c>
+      <c r="B192" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C190">
+      <c r="C192">
         <v>38</v>
       </c>
-      <c r="D190" t="s">
-        <v>247</v>
-      </c>
-      <c r="E190" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" t="s">
-        <v>160</v>
-      </c>
-      <c r="B191" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D192" t="s">
+        <v>250</v>
+      </c>
+      <c r="E192" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>163</v>
+      </c>
+      <c r="B193" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C191">
+      <c r="C193">
         <v>39</v>
       </c>
-      <c r="D191" t="s">
-        <v>249</v>
-      </c>
-      <c r="E191" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" t="s">
-        <v>160</v>
-      </c>
-      <c r="B192" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D193" t="s">
+        <v>252</v>
+      </c>
+      <c r="E193" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>163</v>
+      </c>
+      <c r="B194" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C192">
+      <c r="C194">
         <v>41</v>
       </c>
-      <c r="D192" t="s">
-        <v>254</v>
-      </c>
-      <c r="E192" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" t="s">
-        <v>160</v>
-      </c>
-      <c r="B193" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D194" t="s">
+        <v>257</v>
+      </c>
+      <c r="E194" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>163</v>
+      </c>
+      <c r="B195" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C193">
+      <c r="C195">
         <v>42</v>
       </c>
-      <c r="D193" t="s">
-        <v>256</v>
-      </c>
-      <c r="E193" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" t="s">
-        <v>160</v>
-      </c>
-      <c r="B194" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D195" t="s">
+        <v>259</v>
+      </c>
+      <c r="E195" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>163</v>
+      </c>
+      <c r="B196" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C194">
+      <c r="C196">
         <v>43</v>
       </c>
-      <c r="D194" t="s">
-        <v>258</v>
-      </c>
-      <c r="E194" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" t="s">
-        <v>160</v>
-      </c>
-      <c r="B195" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D196" t="s">
+        <v>261</v>
+      </c>
+      <c r="E196" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>163</v>
+      </c>
+      <c r="B197" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C195">
+      <c r="C197">
         <v>44</v>
       </c>
-      <c r="D195" t="s">
-        <v>260</v>
-      </c>
-      <c r="E195" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" t="s">
-        <v>160</v>
-      </c>
-      <c r="B196" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D197" t="s">
+        <v>263</v>
+      </c>
+      <c r="E197" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>163</v>
+      </c>
+      <c r="B198" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C196">
+      <c r="C198">
         <v>46</v>
       </c>
-      <c r="D196" t="s">
-        <v>262</v>
-      </c>
-      <c r="E196" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" t="s">
-        <v>160</v>
-      </c>
-      <c r="B197" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D198" t="s">
+        <v>265</v>
+      </c>
+      <c r="E198" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>163</v>
+      </c>
+      <c r="B199" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C197">
+      <c r="C199">
         <v>47</v>
       </c>
-      <c r="D197" t="s">
-        <v>264</v>
-      </c>
-      <c r="E197" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" t="s">
-        <v>160</v>
-      </c>
-      <c r="B198" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D199" t="s">
+        <v>267</v>
+      </c>
+      <c r="E199" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>163</v>
+      </c>
+      <c r="B200" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C198">
+      <c r="C200">
         <v>48</v>
       </c>
-      <c r="D198" t="s">
-        <v>266</v>
-      </c>
-      <c r="E198" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>160</v>
-      </c>
-      <c r="B199" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D200" t="s">
+        <v>269</v>
+      </c>
+      <c r="E200" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>163</v>
+      </c>
+      <c r="B201" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C199">
+      <c r="C201">
         <v>49</v>
       </c>
-      <c r="D199" t="s">
-        <v>268</v>
-      </c>
-      <c r="E199" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" t="s">
-        <v>160</v>
-      </c>
-      <c r="B200" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D201" t="s">
+        <v>271</v>
+      </c>
+      <c r="E201" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>163</v>
+      </c>
+      <c r="B202" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C200">
+      <c r="C202">
         <v>50</v>
       </c>
-      <c r="D200" t="s">
-        <v>270</v>
-      </c>
-      <c r="E200" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" t="s">
-        <v>160</v>
-      </c>
-      <c r="B201" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D202" t="s">
+        <v>273</v>
+      </c>
+      <c r="E202" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>163</v>
+      </c>
+      <c r="B203" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C201">
+      <c r="C203">
         <v>51</v>
       </c>
-      <c r="D201" t="s">
-        <v>272</v>
-      </c>
-      <c r="E201" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" t="s">
-        <v>160</v>
-      </c>
-      <c r="B202" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D203" t="s">
+        <v>275</v>
+      </c>
+      <c r="E203" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>163</v>
+      </c>
+      <c r="B204" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C202">
+      <c r="C204">
         <v>52</v>
       </c>
-      <c r="D202" t="s">
-        <v>274</v>
-      </c>
-      <c r="E202" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" t="s">
-        <v>160</v>
-      </c>
-      <c r="B203" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D204" t="s">
+        <v>277</v>
+      </c>
+      <c r="E204" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>163</v>
+      </c>
+      <c r="B205" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C203">
+      <c r="C205">
         <v>53</v>
       </c>
-      <c r="D203" t="s">
-        <v>276</v>
-      </c>
-      <c r="E203" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" t="s">
-        <v>160</v>
-      </c>
-      <c r="B204" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D205" t="s">
+        <v>279</v>
+      </c>
+      <c r="E205" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>163</v>
+      </c>
+      <c r="B206" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C204">
+      <c r="C206">
         <v>54</v>
       </c>
-      <c r="D204" t="s">
-        <v>278</v>
-      </c>
-      <c r="E204" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" t="s">
-        <v>160</v>
-      </c>
-      <c r="B205" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D206" t="s">
+        <v>281</v>
+      </c>
+      <c r="E206" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>163</v>
+      </c>
+      <c r="B207" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C205">
+      <c r="C207">
         <v>55</v>
       </c>
-      <c r="D205" t="s">
-        <v>280</v>
-      </c>
-      <c r="E205" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" t="s">
-        <v>160</v>
-      </c>
-      <c r="B206" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D207" t="s">
+        <v>283</v>
+      </c>
+      <c r="E207" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>163</v>
+      </c>
+      <c r="B208" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C206">
+      <c r="C208">
         <v>56</v>
       </c>
-      <c r="D206" t="s">
-        <v>282</v>
-      </c>
-      <c r="E206" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" t="s">
-        <v>160</v>
-      </c>
-      <c r="B207" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D208" t="s">
+        <v>285</v>
+      </c>
+      <c r="E208" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>163</v>
+      </c>
+      <c r="B209" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C207">
+      <c r="C209">
         <v>57</v>
       </c>
-      <c r="D207" t="s">
-        <v>284</v>
-      </c>
-      <c r="E207" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
-        <v>160</v>
-      </c>
-      <c r="B208" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D209" t="s">
+        <v>287</v>
+      </c>
+      <c r="E209" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>163</v>
+      </c>
+      <c r="B210" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C208">
+      <c r="C210">
         <v>58</v>
       </c>
-      <c r="D208" t="s">
-        <v>286</v>
-      </c>
-      <c r="E208" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
-        <v>160</v>
-      </c>
-      <c r="B209" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D210" t="s">
+        <v>289</v>
+      </c>
+      <c r="E210" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>163</v>
+      </c>
+      <c r="B211" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C209">
+      <c r="C211">
         <v>59</v>
       </c>
-      <c r="D209" t="s">
-        <v>288</v>
-      </c>
-      <c r="E209" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
-        <v>160</v>
-      </c>
-      <c r="B210" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D211" t="s">
+        <v>291</v>
+      </c>
+      <c r="E211" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>163</v>
+      </c>
+      <c r="B212" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C210">
+      <c r="C212">
         <v>60</v>
       </c>
-      <c r="D210" t="s">
-        <v>290</v>
-      </c>
-      <c r="E210" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
-        <v>160</v>
-      </c>
-      <c r="B211" t="str">
-        <f>MetadataDict!$B$50</f>
+      <c r="D212" t="s">
+        <v>293</v>
+      </c>
+      <c r="E212" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>163</v>
+      </c>
+      <c r="B213" t="str">
+        <f>MetadataDict!$B$52</f>
         <v>termID</v>
       </c>
-      <c r="C211">
+      <c r="C213">
         <v>61</v>
       </c>
-      <c r="D211" t="s">
-        <v>292</v>
-      </c>
-      <c r="E211" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>160</v>
-      </c>
-      <c r="B212" t="str">
-        <f>MetadataDict!$B$50</f>
-        <v>termID</v>
-      </c>
-      <c r="C212">
-        <v>62</v>
-      </c>
-      <c r="D212" t="s">
-        <v>294</v>
-      </c>
-      <c r="E212" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>160</v>
-      </c>
-      <c r="B213" t="str">
-        <f>MetadataDict!$B$50</f>
-        <v>termID</v>
-      </c>
-      <c r="C213">
-        <v>63</v>
-      </c>
       <c r="D213" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E213" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B214" t="str">
         <f>MetadataDict!$B$52</f>
-        <v>program</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>298</v>
+        <v>termID</v>
+      </c>
+      <c r="C214">
+        <v>62</v>
       </c>
       <c r="D214" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E214" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B215" t="str">
         <f>MetadataDict!$B$52</f>
+        <v>termID</v>
+      </c>
+      <c r="C215">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>299</v>
+      </c>
+      <c r="E215" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>163</v>
+      </c>
+      <c r="B216" t="str">
+        <f>MetadataDict!$B$54</f>
         <v>program</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C216" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D216" t="s">
         <v>302</v>
       </c>
-      <c r="E215" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>160</v>
-      </c>
-      <c r="B216" t="str">
-        <f>MetadataDict!$B$52</f>
+      <c r="E216" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>163</v>
+      </c>
+      <c r="B217" t="str">
+        <f>MetadataDict!$B$54</f>
         <v>program</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D216" t="s">
-        <v>344</v>
-      </c>
-      <c r="E216" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>160</v>
-      </c>
-      <c r="B217" t="str">
-        <f>MetadataDict!$B$52</f>
+      <c r="C217" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D217" t="s">
+        <v>305</v>
+      </c>
+      <c r="E217" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>163</v>
+      </c>
+      <c r="B218" t="str">
+        <f>MetadataDict!$B$54</f>
         <v>program</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D217" t="s">
-        <v>346</v>
-      </c>
-      <c r="E217" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>160</v>
-      </c>
-      <c r="B218" t="str">
-        <f>MetadataDict!$B$52</f>
+      <c r="C218" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D218" t="s">
+        <v>352</v>
+      </c>
+      <c r="E218" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>163</v>
+      </c>
+      <c r="B219" t="str">
+        <f>MetadataDict!$B$54</f>
         <v>program</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D218" t="s">
-        <v>306</v>
-      </c>
-      <c r="E218" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
+      <c r="C219" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D219" t="s">
+        <v>354</v>
+      </c>
+      <c r="E219" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>163</v>
+      </c>
+      <c r="B220" t="str">
+        <f>MetadataDict!$B$54</f>
+        <v>program</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D220" t="s">
+        <v>309</v>
+      </c>
+      <c r="E220" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>50</v>
+      </c>
+      <c r="B221" t="s">
+        <v>376</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D221" t="s">
+        <v>379</v>
+      </c>
+      <c r="E221" t="s">
+        <v>19</v>
+      </c>
+      <c r="G221" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
         <v>61</v>
       </c>
-      <c r="B219" t="str">
+      <c r="B222" t="s">
+        <v>376</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D222" t="s">
+        <v>380</v>
+      </c>
+      <c r="E222" t="s">
+        <v>19</v>
+      </c>
+      <c r="G222" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>61</v>
+      </c>
+      <c r="B223" t="str">
         <f>MetadataDict!$B$13</f>
         <v>fieldNotes</v>
       </c>
-      <c r="C219" t="s">
-        <v>347</v>
-      </c>
-      <c r="D219" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
+      <c r="C223" t="s">
+        <v>355</v>
+      </c>
+      <c r="D223" t="s">
+        <v>356</v>
+      </c>
+      <c r="E223" t="s">
+        <v>19</v>
+      </c>
+      <c r="G223" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
         <v>61</v>
       </c>
-      <c r="B220" t="str">
+      <c r="B224" t="str">
         <f>MetadataDict!$B$13</f>
         <v>fieldNotes</v>
       </c>
-      <c r="C220" t="s">
-        <v>349</v>
-      </c>
-      <c r="D220" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
+      <c r="C224" t="s">
+        <v>357</v>
+      </c>
+      <c r="D224" t="s">
+        <v>358</v>
+      </c>
+      <c r="E224" t="s">
+        <v>19</v>
+      </c>
+      <c r="G224" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
         <v>61</v>
       </c>
-      <c r="B221" t="str">
+      <c r="B225" t="str">
         <f>MetadataDict!$B$13</f>
         <v>fieldNotes</v>
       </c>
-      <c r="C221" t="s">
-        <v>351</v>
-      </c>
-      <c r="D221" t="s">
-        <v>352</v>
+      <c r="C225" t="s">
+        <v>359</v>
+      </c>
+      <c r="D225" t="s">
+        <v>360</v>
+      </c>
+      <c r="E225" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G221" xr:uid="{063D4566-F61A-451E-B178-010037E4B35B}"/>
+  <autoFilter ref="A1:G225" xr:uid="{063D4566-F61A-451E-B178-010037E4B35B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Event"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7804,49 +8021,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D9F55F-645B-438B-85F4-A8E490BE8B65}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -8113,13 +8330,47 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B41B24-566D-47DB-B2A1-8A240BF055D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B41B24-566D-47DB-B2A1-8A240BF055D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3618cbaa-901d-4c6b-9f1a-f53e3aa15701"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783B9ED7-A86D-4C20-8581-4B66EC9EBDC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783B9ED7-A86D-4C20-8581-4B66EC9EBDC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
+    <ds:schemaRef ds:uri="3618cbaa-901d-4c6b-9f1a-f53e3aa15701"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/MetadataDictionary_v1.xlsx
+++ b/Data/MetadataDictionary_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37C9C6B5-9E04-47BE-8234-FC2093D10228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F0870A-8CAF-44B9-AAE7-5142ABE39D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
+    <workbookView xWindow="36570" yWindow="4140" windowWidth="14400" windowHeight="7365" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="MetadataDict" sheetId="2" r:id="rId1"/>
@@ -1904,12 +1904,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E6029B-A891-4391-9A91-8B6BC1C75C07}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1977,7 +1976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2011,7 +2010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2037,7 +2036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="203" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2069,7 +2068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2101,7 +2100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2130,7 +2129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -2430,7 +2429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -2450,7 +2449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -2479,7 +2478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -2505,7 +2504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -2534,7 +2533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -2563,7 +2562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -2621,7 +2620,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -2650,7 +2649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -2664,7 +2663,7 @@
       <c r="M28" s="3"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -2688,7 +2687,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -2712,7 +2711,7 @@
       </c>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="174" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -2745,7 +2744,7 @@
       </c>
       <c r="O31"/>
     </row>
-    <row r="32" spans="1:15" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -2774,7 +2773,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -2801,7 +2800,7 @@
       </c>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -2830,7 +2829,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -2860,7 +2859,7 @@
       </c>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -2890,7 +2889,7 @@
       </c>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -2920,7 +2919,7 @@
       </c>
       <c r="O37"/>
     </row>
-    <row r="38" spans="1:15" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="174" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -2972,7 +2971,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>140</v>
       </c>
@@ -2984,7 +2983,7 @@
       </c>
       <c r="O40"/>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>140</v>
       </c>
@@ -3005,7 +3004,7 @@
       </c>
       <c r="O41"/>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -3026,7 +3025,7 @@
       </c>
       <c r="O42"/>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>140</v>
       </c>
@@ -3047,7 +3046,7 @@
       </c>
       <c r="O43"/>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>140</v>
       </c>
@@ -3068,7 +3067,7 @@
       </c>
       <c r="O44"/>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>140</v>
       </c>
@@ -3089,7 +3088,7 @@
       </c>
       <c r="O45"/>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -3116,7 +3115,7 @@
       </c>
       <c r="O46"/>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>140</v>
       </c>
@@ -3137,7 +3136,7 @@
       </c>
       <c r="O47"/>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>140</v>
       </c>
@@ -3164,7 +3163,7 @@
       </c>
       <c r="O48"/>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>140</v>
       </c>
@@ -3188,7 +3187,7 @@
       </c>
       <c r="O49"/>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -3212,7 +3211,7 @@
       </c>
       <c r="O50"/>
     </row>
-    <row r="51" spans="1:15" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="116" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -3224,7 +3223,7 @@
       </c>
       <c r="O51"/>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>163</v>
       </c>
@@ -3242,7 +3241,7 @@
       </c>
       <c r="O52"/>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -3260,7 +3259,7 @@
       </c>
       <c r="O53"/>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -3278,7 +3277,7 @@
       </c>
       <c r="O54"/>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -3302,7 +3301,7 @@
       </c>
       <c r="O55"/>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>163</v>
       </c>
@@ -3326,7 +3325,7 @@
       </c>
       <c r="O56"/>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -3350,7 +3349,7 @@
       </c>
       <c r="O57"/>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -3376,11 +3375,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O58" xr:uid="{41E6029B-A891-4391-9A91-8B6BC1C75C07}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Event"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O8">
       <sortCondition ref="B1:B58"/>
     </sortState>
@@ -8072,26 +8066,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Number xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
-    <DateandTime xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006688A6CBE26CBF41BFE362BEC34502BA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="916ec95d980b70225c2beeb175eb34ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xmlns:ns3="3618cbaa-901d-4c6b-9f1a-f53e3aa15701" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1086361ad164fb1fc8fad31a5b69396c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8329,33 +8303,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B41B24-566D-47DB-B2A1-8A240BF055D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3618cbaa-901d-4c6b-9f1a-f53e3aa15701"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Number xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
+    <DateandTime xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783B9ED7-A86D-4C20-8581-4B66EC9EBDC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8373,4 +8341,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B41B24-566D-47DB-B2A1-8A240BF055D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3618cbaa-901d-4c6b-9f1a-f53e3aa15701"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/MetadataDictionary_v1.xlsx
+++ b/Data/MetadataDictionary_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F0870A-8CAF-44B9-AAE7-5142ABE39D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129757C0-AEF8-42B4-AF02-3A106F7BE009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36570" yWindow="4140" windowWidth="14400" windowHeight="7365" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="MetadataDict" sheetId="2" r:id="rId1"/>
@@ -1441,9 +1441,6 @@
     <t xml:space="preserve">Randome </t>
   </si>
   <si>
-    <t>beaverImpact</t>
-  </si>
-  <si>
     <t xml:space="preserve">Producer defined </t>
   </si>
   <si>
@@ -1469,6 +1466,9 @@
   </si>
   <si>
     <t xml:space="preserve">added by ras 02/23/2022 </t>
+  </si>
+  <si>
+    <t>beaverImpactFlow</t>
   </si>
 </sst>
 </file>
@@ -1904,11 +1904,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E6029B-A891-4391-9A91-8B6BC1C75C07}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1976,7 +1977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="203" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="203" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -2181,7 +2182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2216,7 +2217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="145" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -2337,7 +2338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2368,13 +2369,13 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
+        <v>381</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G17" t="s">
         <v>372</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="G17" t="s">
-        <v>373</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>42</v>
@@ -2383,10 +2384,10 @@
         <v>76</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -2449,7 +2450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -2478,7 +2479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -2594,7 +2595,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -2663,7 +2664,7 @@
       <c r="M28" s="3"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -2711,7 +2712,7 @@
       </c>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15" ht="174" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -2744,7 +2745,7 @@
       </c>
       <c r="O31"/>
     </row>
-    <row r="32" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -2800,7 +2801,7 @@
       </c>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -2859,7 +2860,7 @@
       </c>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -2889,7 +2890,7 @@
       </c>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -2919,7 +2920,7 @@
       </c>
       <c r="O37"/>
     </row>
-    <row r="38" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -2948,7 +2949,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="174" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="174" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>140</v>
       </c>
@@ -2983,7 +2984,7 @@
       </c>
       <c r="O40"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>140</v>
       </c>
@@ -3004,7 +3005,7 @@
       </c>
       <c r="O41"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -3025,7 +3026,7 @@
       </c>
       <c r="O42"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>140</v>
       </c>
@@ -3046,7 +3047,7 @@
       </c>
       <c r="O43"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>140</v>
       </c>
@@ -3067,7 +3068,7 @@
       </c>
       <c r="O44"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>140</v>
       </c>
@@ -3088,7 +3089,7 @@
       </c>
       <c r="O45"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -3115,7 +3116,7 @@
       </c>
       <c r="O46"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>140</v>
       </c>
@@ -3136,7 +3137,7 @@
       </c>
       <c r="O47"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>140</v>
       </c>
@@ -3163,7 +3164,7 @@
       </c>
       <c r="O48"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>140</v>
       </c>
@@ -3187,7 +3188,7 @@
       </c>
       <c r="O49"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -3211,7 +3212,7 @@
       </c>
       <c r="O50"/>
     </row>
-    <row r="51" spans="1:15" ht="116" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -3223,7 +3224,7 @@
       </c>
       <c r="O51"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>163</v>
       </c>
@@ -3241,7 +3242,7 @@
       </c>
       <c r="O52"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -3259,7 +3260,7 @@
       </c>
       <c r="O53"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -3277,7 +3278,7 @@
       </c>
       <c r="O54"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -3301,7 +3302,7 @@
       </c>
       <c r="O55"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>163</v>
       </c>
@@ -3325,7 +3326,7 @@
       </c>
       <c r="O56"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -3349,7 +3350,7 @@
       </c>
       <c r="O57"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -3375,6 +3376,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O58" xr:uid="{41E6029B-A891-4391-9A91-8B6BC1C75C07}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="beaverImpact"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O8">
       <sortCondition ref="B1:B58"/>
     </sortState>
@@ -5087,7 +5093,7 @@
         <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
@@ -7904,19 +7910,19 @@
         <v>50</v>
       </c>
       <c r="B221" t="s">
+        <v>375</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="D221" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E221" t="s">
         <v>19</v>
       </c>
       <c r="G221" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
@@ -7924,19 +7930,19 @@
         <v>61</v>
       </c>
       <c r="B222" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D222" t="s">
+        <v>379</v>
+      </c>
+      <c r="E222" t="s">
+        <v>19</v>
+      </c>
+      <c r="G222" t="s">
         <v>380</v>
-      </c>
-      <c r="E222" t="s">
-        <v>19</v>
-      </c>
-      <c r="G222" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
@@ -7957,7 +7963,7 @@
         <v>19</v>
       </c>
       <c r="G223" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
@@ -7978,7 +7984,7 @@
         <v>19</v>
       </c>
       <c r="G224" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
@@ -8066,6 +8072,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Number xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
+    <DateandTime xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006688A6CBE26CBF41BFE362BEC34502BA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="916ec95d980b70225c2beeb175eb34ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xmlns:ns3="3618cbaa-901d-4c6b-9f1a-f53e3aa15701" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1086361ad164fb1fc8fad31a5b69396c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8303,27 +8329,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3618cbaa-901d-4c6b-9f1a-f53e3aa15701"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Number xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
-    <DateandTime xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B41B24-566D-47DB-B2A1-8A240BF055D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783B9ED7-A86D-4C20-8581-4B66EC9EBDC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8341,30 +8373,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B41B24-566D-47DB-B2A1-8A240BF055D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3618cbaa-901d-4c6b-9f1a-f53e3aa15701"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data/MetadataDictionary_v1.xlsx
+++ b/Data/MetadataDictionary_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B63E159-2468-4575-BECC-3DF96E104325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0290F47-681E-464A-BC22-22138D682BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="MetadataDict" sheetId="2" r:id="rId1"/>
@@ -322,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="396">
   <si>
     <t>tblname</t>
   </si>
@@ -1507,6 +1507,9 @@
   </si>
   <si>
     <t>The original type of data assigned in the source dataset as read by computer software.</t>
+  </si>
+  <si>
+    <t>measurmentTypeID</t>
   </si>
 </sst>
 </file>
@@ -1941,16 +1944,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E6029B-A891-4391-9A91-8B6BC1C75C07}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23:B29"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.26953125" customWidth="1"/>
     <col min="3" max="3" width="43.54296875" style="3" customWidth="1"/>
     <col min="4" max="8" width="10.1796875" customWidth="1"/>
@@ -2013,7 +2017,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>299</v>
       </c>
@@ -2027,7 +2031,7 @@
       <c r="M2" s="3"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>299</v>
       </c>
@@ -2054,7 +2058,7 @@
       </c>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>299</v>
       </c>
@@ -2084,7 +2088,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>299</v>
       </c>
@@ -2117,7 +2121,7 @@
       </c>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>299</v>
       </c>
@@ -2152,7 +2156,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>299</v>
       </c>
@@ -2181,7 +2185,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>299</v>
       </c>
@@ -2205,7 +2209,7 @@
       </c>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -2235,7 +2239,7 @@
       </c>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>299</v>
       </c>
@@ -2264,7 +2268,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>299</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -2304,7 +2308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -2353,7 +2357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -2379,7 +2383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -2408,7 +2412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -2437,7 +2441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -2460,7 +2464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>245</v>
       </c>
@@ -2495,7 +2499,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2524,7 +2528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="63.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2538,7 +2542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2561,7 +2565,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2599,7 +2603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2628,7 +2632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2663,7 +2667,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="44.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2695,7 +2699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="33.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2727,7 +2731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2759,7 +2763,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2868,7 +2872,7 @@
         <v>374</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>395</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>345</v>
@@ -2917,7 +2921,7 @@
         <v>374</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>319</v>
@@ -2941,7 +2945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>296</v>
       </c>
@@ -2953,7 +2957,7 @@
       </c>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>296</v>
       </c>
@@ -2971,7 +2975,7 @@
       </c>
       <c r="O37"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>296</v>
       </c>
@@ -2989,7 +2993,7 @@
       </c>
       <c r="O38"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>296</v>
       </c>
@@ -3009,7 +3013,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>296</v>
       </c>
@@ -3027,7 +3031,7 @@
       </c>
       <c r="O40"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>296</v>
       </c>
@@ -3047,7 +3051,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>296</v>
       </c>
@@ -3073,7 +3077,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>296</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>296</v>
       </c>
@@ -3117,7 +3121,7 @@
       </c>
       <c r="O44"/>
     </row>
-    <row r="45" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>296</v>
       </c>
@@ -3141,7 +3145,7 @@
       </c>
       <c r="O45"/>
     </row>
-    <row r="46" spans="1:16" ht="87" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>297</v>
       </c>
@@ -3153,7 +3157,7 @@
       </c>
       <c r="O46"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>297</v>
       </c>
@@ -3174,7 +3178,7 @@
       </c>
       <c r="O47"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>297</v>
       </c>
@@ -3195,7 +3199,7 @@
       </c>
       <c r="O48"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>297</v>
       </c>
@@ -3216,7 +3220,7 @@
       </c>
       <c r="O49"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>297</v>
       </c>
@@ -3237,7 +3241,7 @@
       </c>
       <c r="O50"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>297</v>
       </c>
@@ -3258,7 +3262,7 @@
       </c>
       <c r="O51"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>297</v>
       </c>
@@ -3285,7 +3289,7 @@
       </c>
       <c r="O52"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>297</v>
       </c>
@@ -3306,7 +3310,7 @@
       </c>
       <c r="O53"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>297</v>
       </c>
@@ -3333,7 +3337,7 @@
       </c>
       <c r="O54"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>297</v>
       </c>
@@ -3357,7 +3361,7 @@
       </c>
       <c r="O55"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>297</v>
       </c>
@@ -3383,6 +3387,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O56" xr:uid="{41E6029B-A891-4391-9A91-8B6BC1C75C07}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="MeasurementOrFact"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O11">
       <sortCondition ref="B1:B45"/>
     </sortState>
@@ -4447,7 +4456,7 @@
       </c>
       <c r="B55" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>146</v>
@@ -4471,7 +4480,7 @@
       </c>
       <c r="B56" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>148</v>
@@ -4495,7 +4504,7 @@
       </c>
       <c r="B57" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>150</v>
@@ -4519,7 +4528,7 @@
       </c>
       <c r="B58" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>152</v>
@@ -4543,7 +4552,7 @@
       </c>
       <c r="B59" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>154</v>
@@ -4567,7 +4576,7 @@
       </c>
       <c r="B60" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>158</v>
@@ -4591,7 +4600,7 @@
       </c>
       <c r="B61" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>160</v>
@@ -4615,7 +4624,7 @@
       </c>
       <c r="B62" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>162</v>
@@ -4639,7 +4648,7 @@
       </c>
       <c r="B63" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>164</v>
@@ -4663,7 +4672,7 @@
       </c>
       <c r="B64" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>166</v>
@@ -4687,7 +4696,7 @@
       </c>
       <c r="B65" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>168</v>
@@ -4711,7 +4720,7 @@
       </c>
       <c r="B66" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>170</v>
@@ -4735,7 +4744,7 @@
       </c>
       <c r="B67" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>172</v>
@@ -4759,7 +4768,7 @@
       </c>
       <c r="B68" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>174</v>
@@ -4783,7 +4792,7 @@
       </c>
       <c r="B69" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>176</v>
@@ -4807,7 +4816,7 @@
       </c>
       <c r="B70" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>178</v>
@@ -4831,7 +4840,7 @@
       </c>
       <c r="B71" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>180</v>
@@ -4855,7 +4864,7 @@
       </c>
       <c r="B72" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>182</v>
@@ -4879,7 +4888,7 @@
       </c>
       <c r="B73" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>184</v>
@@ -4903,7 +4912,7 @@
       </c>
       <c r="B74" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>186</v>
@@ -4927,7 +4936,7 @@
       </c>
       <c r="B75" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>188</v>
@@ -4951,7 +4960,7 @@
       </c>
       <c r="B76" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>190</v>
@@ -4975,7 +4984,7 @@
       </c>
       <c r="B77" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>192</v>
@@ -4999,7 +5008,7 @@
       </c>
       <c r="B78" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>194</v>
@@ -5023,7 +5032,7 @@
       </c>
       <c r="B79" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>196</v>
@@ -5047,7 +5056,7 @@
       </c>
       <c r="B80" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>198</v>
@@ -5071,7 +5080,7 @@
       </c>
       <c r="B81" s="1" t="str">
         <f>MetadataDict!$B$35</f>
-        <v>term</v>
+        <v>measurementType</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>200</v>
@@ -5227,7 +5236,7 @@
       </c>
       <c r="B89" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C89" s="4">
         <v>35</v>
@@ -5287,7 +5296,7 @@
       </c>
       <c r="B92" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C92" s="4">
         <v>36</v>
@@ -5347,7 +5356,7 @@
       </c>
       <c r="B95" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C95" s="4">
         <v>37</v>
@@ -5407,7 +5416,7 @@
       </c>
       <c r="B98" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C98" s="4">
         <v>38</v>
@@ -5467,7 +5476,7 @@
       </c>
       <c r="B101" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C101" s="4">
         <v>39</v>
@@ -5566,7 +5575,7 @@
       </c>
       <c r="B106" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C106" s="4">
         <v>41</v>
@@ -5632,7 +5641,7 @@
       </c>
       <c r="B109" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C109" s="4">
         <v>42</v>
@@ -5692,7 +5701,7 @@
       </c>
       <c r="B112" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C112" s="4">
         <v>43</v>
@@ -5734,7 +5743,7 @@
       </c>
       <c r="B114" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C114" s="4">
         <v>44</v>
@@ -5776,7 +5785,7 @@
       </c>
       <c r="B116" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C116" s="4">
         <v>46</v>
@@ -5824,7 +5833,7 @@
       </c>
       <c r="B118" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C118" s="4">
         <v>47</v>
@@ -5866,7 +5875,7 @@
       </c>
       <c r="B120" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C120" s="4">
         <v>48</v>
@@ -5908,7 +5917,7 @@
       </c>
       <c r="B122" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C122" s="4">
         <v>49</v>
@@ -6298,7 +6307,7 @@
       </c>
       <c r="B142" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C142" s="4">
         <v>50</v>
@@ -6340,7 +6349,7 @@
       </c>
       <c r="B144" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C144" s="4">
         <v>51</v>
@@ -6382,7 +6391,7 @@
       </c>
       <c r="B146" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C146" s="4">
         <v>52</v>
@@ -6424,7 +6433,7 @@
       </c>
       <c r="B148" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C148" s="4">
         <v>53</v>
@@ -6472,7 +6481,7 @@
       </c>
       <c r="B150" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C150" s="4">
         <v>54</v>
@@ -6520,7 +6529,7 @@
       </c>
       <c r="B152" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C152" s="4">
         <v>55</v>
@@ -6568,7 +6577,7 @@
       </c>
       <c r="B154" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C154" s="4">
         <v>56</v>
@@ -6616,7 +6625,7 @@
       </c>
       <c r="B156" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C156" s="4">
         <v>57</v>
@@ -6664,7 +6673,7 @@
       </c>
       <c r="B158" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C158" s="2">
         <v>58</v>
@@ -6707,7 +6716,7 @@
       </c>
       <c r="B160" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C160" s="4">
         <v>59</v>
@@ -6749,7 +6758,7 @@
       </c>
       <c r="B162" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C162" s="4">
         <v>60</v>
@@ -6791,7 +6800,7 @@
       </c>
       <c r="B164" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C164" s="4">
         <v>61</v>
@@ -6833,7 +6842,7 @@
       </c>
       <c r="B166" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C166" s="4">
         <v>62</v>
@@ -6875,7 +6884,7 @@
       </c>
       <c r="B168" s="1" t="str">
         <f>MetadataDict!$B$33</f>
-        <v>termID</v>
+        <v>measurmentTypeID</v>
       </c>
       <c r="C168" s="4">
         <v>63</v>
@@ -8098,16 +8107,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="3618cbaa-901d-4c6b-9f1a-f53e3aa15701"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Data/MetadataDictionary_v1.xlsx
+++ b/Data/MetadataDictionary_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0290F47-681E-464A-BC22-22138D682BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC254B1-37C3-4ED7-87FF-B545CE927DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
+    <workbookView xWindow="-38520" yWindow="-4305" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="MetadataDict" sheetId="2" r:id="rId1"/>
@@ -1944,10 +1944,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E6029B-A891-4391-9A91-8B6BC1C75C07}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
@@ -2017,7 +2016,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>299</v>
       </c>
@@ -2031,7 +2030,7 @@
       <c r="M2" s="3"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>299</v>
       </c>
@@ -2058,7 +2057,7 @@
       </c>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>299</v>
       </c>
@@ -2088,7 +2087,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>299</v>
       </c>
@@ -2121,7 +2120,7 @@
       </c>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>299</v>
       </c>
@@ -2156,7 +2155,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>299</v>
       </c>
@@ -2185,7 +2184,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>299</v>
       </c>
@@ -2209,7 +2208,7 @@
       </c>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -2239,7 +2238,7 @@
       </c>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>299</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>299</v>
       </c>
@@ -2297,7 +2296,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -2357,7 +2356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -2383,7 +2382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -2412,7 +2411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -2441,7 +2440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -2464,7 +2463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>245</v>
       </c>
@@ -2499,7 +2498,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="63.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2542,7 +2541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2565,7 +2564,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2632,7 +2631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2667,7 +2666,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="44.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="33.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2731,7 +2730,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2763,7 +2762,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2945,7 +2944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>296</v>
       </c>
@@ -2957,7 +2956,7 @@
       </c>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>296</v>
       </c>
@@ -2975,7 +2974,7 @@
       </c>
       <c r="O37"/>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>296</v>
       </c>
@@ -2993,7 +2992,7 @@
       </c>
       <c r="O38"/>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>296</v>
       </c>
@@ -3013,7 +3012,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>296</v>
       </c>
@@ -3031,7 +3030,7 @@
       </c>
       <c r="O40"/>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>296</v>
       </c>
@@ -3051,7 +3050,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>296</v>
       </c>
@@ -3077,7 +3076,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>296</v>
       </c>
@@ -3097,7 +3096,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>296</v>
       </c>
@@ -3121,7 +3120,7 @@
       </c>
       <c r="O44"/>
     </row>
-    <row r="45" spans="1:16" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>296</v>
       </c>
@@ -3145,7 +3144,7 @@
       </c>
       <c r="O45"/>
     </row>
-    <row r="46" spans="1:16" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>297</v>
       </c>
@@ -3157,7 +3156,7 @@
       </c>
       <c r="O46"/>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>297</v>
       </c>
@@ -3178,7 +3177,7 @@
       </c>
       <c r="O47"/>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>297</v>
       </c>
@@ -3199,7 +3198,7 @@
       </c>
       <c r="O48"/>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>297</v>
       </c>
@@ -3220,7 +3219,7 @@
       </c>
       <c r="O49"/>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>297</v>
       </c>
@@ -3241,7 +3240,7 @@
       </c>
       <c r="O50"/>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>297</v>
       </c>
@@ -3262,7 +3261,7 @@
       </c>
       <c r="O51"/>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>297</v>
       </c>
@@ -3289,7 +3288,7 @@
       </c>
       <c r="O52"/>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>297</v>
       </c>
@@ -3310,7 +3309,7 @@
       </c>
       <c r="O53"/>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>297</v>
       </c>
@@ -3337,7 +3336,7 @@
       </c>
       <c r="O54"/>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>297</v>
       </c>
@@ -3361,7 +3360,7 @@
       </c>
       <c r="O55"/>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>297</v>
       </c>
@@ -3387,11 +3386,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O56" xr:uid="{41E6029B-A891-4391-9A91-8B6BC1C75C07}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="MeasurementOrFact"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O11">
       <sortCondition ref="B1:B45"/>
     </sortState>
@@ -3404,11 +3398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063D4566-F61A-451E-B178-010037E4B35B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
@@ -3445,7 +3438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>299</v>
       </c>
@@ -3463,7 +3456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>299</v>
       </c>
@@ -3481,7 +3474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>299</v>
       </c>
@@ -3499,7 +3492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>299</v>
       </c>
@@ -3517,7 +3510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>299</v>
       </c>
@@ -3538,7 +3531,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>299</v>
       </c>
@@ -3559,7 +3552,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>299</v>
       </c>
@@ -3580,7 +3573,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -3601,7 +3594,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>299</v>
       </c>
@@ -3622,7 +3615,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>299</v>
       </c>
@@ -3643,7 +3636,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>299</v>
       </c>
@@ -3664,7 +3657,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -3682,7 +3675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -3700,7 +3693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -3718,7 +3711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -3736,7 +3729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -3756,7 +3749,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -3776,7 +3769,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3796,7 +3789,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -3816,7 +3809,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>245</v>
       </c>
@@ -3836,7 +3829,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3857,7 +3850,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3878,7 +3871,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -3896,7 +3889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3917,7 +3910,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3938,7 +3931,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -4450,7 +4443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>374</v>
       </c>
@@ -4474,7 +4467,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>374</v>
       </c>
@@ -4498,7 +4491,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>374</v>
       </c>
@@ -4522,7 +4515,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>374</v>
       </c>
@@ -4546,7 +4539,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>374</v>
       </c>
@@ -4570,7 +4563,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>374</v>
       </c>
@@ -4594,7 +4587,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>374</v>
       </c>
@@ -4618,7 +4611,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>374</v>
       </c>
@@ -4642,7 +4635,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>374</v>
       </c>
@@ -4666,7 +4659,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>374</v>
       </c>
@@ -4690,7 +4683,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>374</v>
       </c>
@@ -4714,7 +4707,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>374</v>
       </c>
@@ -4738,7 +4731,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>374</v>
       </c>
@@ -4762,7 +4755,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>374</v>
       </c>
@@ -4786,7 +4779,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>374</v>
       </c>
@@ -4810,7 +4803,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>374</v>
       </c>
@@ -4834,7 +4827,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>374</v>
       </c>
@@ -4858,7 +4851,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>374</v>
       </c>
@@ -4882,7 +4875,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>374</v>
       </c>
@@ -4906,7 +4899,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -4930,7 +4923,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>374</v>
       </c>
@@ -4954,7 +4947,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>374</v>
       </c>
@@ -4978,7 +4971,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>374</v>
       </c>
@@ -5002,7 +4995,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>374</v>
       </c>
@@ -5026,7 +5019,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>374</v>
       </c>
@@ -5050,7 +5043,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>374</v>
       </c>
@@ -5074,7 +5067,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>374</v>
       </c>
@@ -5959,7 +5952,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>296</v>
       </c>
@@ -5979,7 +5972,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>296</v>
       </c>
@@ -5999,7 +5992,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>296</v>
       </c>
@@ -6019,7 +6012,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>296</v>
       </c>
@@ -6039,7 +6032,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>296</v>
       </c>
@@ -6057,7 +6050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>296</v>
       </c>
@@ -6075,7 +6068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>296</v>
       </c>
@@ -6095,7 +6088,7 @@
       <c r="F130"/>
       <c r="G130"/>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>296</v>
       </c>
@@ -6113,7 +6106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>296</v>
       </c>
@@ -6133,7 +6126,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>296</v>
       </c>
@@ -6153,7 +6146,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>296</v>
       </c>
@@ -6173,7 +6166,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>296</v>
       </c>
@@ -6193,7 +6186,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>297</v>
       </c>
@@ -6211,7 +6204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>297</v>
       </c>
@@ -6229,7 +6222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>297</v>
       </c>
@@ -6247,7 +6240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>297</v>
       </c>
@@ -6265,7 +6258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>297</v>
       </c>
@@ -6283,7 +6276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>297</v>
       </c>
@@ -6962,7 +6955,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>297</v>
       </c>
@@ -6983,7 +6976,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>297</v>
       </c>
@@ -7007,7 +7000,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>297</v>
       </c>
@@ -7028,7 +7021,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>297</v>
       </c>
@@ -7049,7 +7042,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>297</v>
       </c>
@@ -7070,7 +7063,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>297</v>
       </c>
@@ -7091,7 +7084,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>297</v>
       </c>
@@ -7112,7 +7105,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>297</v>
       </c>
@@ -7133,7 +7126,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>297</v>
       </c>
@@ -7157,7 +7150,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>297</v>
       </c>
@@ -7178,7 +7171,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>297</v>
       </c>
@@ -7199,7 +7192,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>297</v>
       </c>
@@ -7220,7 +7213,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>297</v>
       </c>
@@ -7244,7 +7237,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>297</v>
       </c>
@@ -7265,7 +7258,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>297</v>
       </c>
@@ -7286,7 +7279,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>297</v>
       </c>
@@ -7310,7 +7303,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>297</v>
       </c>
@@ -7331,7 +7324,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>297</v>
       </c>
@@ -7352,7 +7345,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>297</v>
       </c>
@@ -7373,7 +7366,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>297</v>
       </c>
@@ -7397,7 +7390,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>297</v>
       </c>
@@ -7421,7 +7414,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>297</v>
       </c>
@@ -7445,7 +7438,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>297</v>
       </c>
@@ -7469,7 +7462,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>297</v>
       </c>
@@ -7493,7 +7486,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>297</v>
       </c>
@@ -7514,7 +7507,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>297</v>
       </c>
@@ -7535,7 +7528,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>297</v>
       </c>
@@ -7556,7 +7549,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>297</v>
       </c>
@@ -7577,7 +7570,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>297</v>
       </c>
@@ -7598,7 +7591,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>297</v>
       </c>
@@ -7619,7 +7612,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>297</v>
       </c>
@@ -7637,7 +7630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>297</v>
       </c>
@@ -7658,7 +7651,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>297</v>
       </c>
@@ -7676,7 +7669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>297</v>
       </c>
@@ -7694,7 +7687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>297</v>
       </c>
@@ -7712,7 +7705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>297</v>
       </c>
@@ -7730,7 +7723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>297</v>
       </c>
@@ -7748,7 +7741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>297</v>
       </c>
@@ -7766,7 +7759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>297</v>
       </c>
@@ -7784,7 +7777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>297</v>
       </c>
@@ -7803,13 +7796,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G211" xr:uid="{063D4566-F61A-451E-B178-010037E4B35B}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="termID"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G211" xr:uid="{063D4566-F61A-451E-B178-010037E4B35B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:G24">
     <sortCondition ref="C22:C24"/>
   </sortState>
@@ -7819,12 +7806,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Number xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
+    <DateandTime xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8066,20 +8055,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Number xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
-    <DateandTime xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B41B24-566D-47DB-B2A1-8A240BF055D5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3618cbaa-901d-4c6b-9f1a-f53e3aa15701"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8105,19 +8102,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B41B24-566D-47DB-B2A1-8A240BF055D5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3618cbaa-901d-4c6b-9f1a-f53e3aa15701"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>